--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>ツール概要</t>
     <rPh sb="3" eb="5">
@@ -170,15 +170,6 @@
     <t>4.4</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>4.8</t>
   </si>
   <si>
@@ -218,6 +209,577 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除履歴表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業履歴編集</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードは暗号化で保護する。</t>
+    <rPh sb="6" eb="8">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で登録したユーザがログインできる。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面で名前、パスワードをユーザ登録する。</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面を経て、完了画面でユーザ登録が完了する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録画面で作業の登録ができる。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容と備考を入力し、作業登録ボタンで現在時刻が作業開始時間に自動で設定され、作業が登録される。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すでに開始中の作業があった場合、現在時刻が作業終了時間に自動で設定され、作業時間が計算され、作業完了となる。</t>
+    <rPh sb="3" eb="6">
+      <t>カイシチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業終了</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業を開始せずに終了時間に現在時刻が設定される。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.3.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、メニュー画面が表示される。</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン認証画面で、ユーザ新規登録ボタンを押下し、ユーザ情報入力フォームが表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面の作業登録ボタンを押下すると、作業登録画面が表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面の作業リストボタンを押下すると、作業リストが表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の項目が編集可能</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HH:mm形式。</t>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間＜終了時間</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間のフォーマット形式</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時間のフォーマット形式</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容文字数</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考文字数</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除したい行にチェックを入れて、削除ボタンを押すとグレーアウトされる。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存ボタンを押すと、挿入、編集、削除がDBに反映される。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業挿入</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックした行の1つ上に新規行を追加する。</t>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -260,12 +822,147 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -274,18 +971,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,8 +1395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628900" y="4410075"/>
-          <a:ext cx="1657349" cy="504825"/>
+          <a:off x="2624759" y="4488760"/>
+          <a:ext cx="1654864" cy="512279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -704,7 +1425,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ登録入力フォーム</a:t>
+            <a:t>ユーザ情報入力フォーム</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -830,16 +1551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17809</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>132107</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -848,8 +1569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638675" y="3595688"/>
-          <a:ext cx="1657349" cy="504825"/>
+          <a:off x="5153026" y="4896058"/>
+          <a:ext cx="1654864" cy="512279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,14 +1609,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>213692</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>71230</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
@@ -906,8 +1627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6800850" y="3595688"/>
-          <a:ext cx="1657349" cy="504825"/>
+          <a:off x="7659757" y="3661949"/>
+          <a:ext cx="1654864" cy="512279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,16 +1667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219903</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>138733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>115128</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -964,8 +1685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6076950" y="4505325"/>
-          <a:ext cx="409575" cy="438150"/>
+          <a:off x="7922729" y="4677603"/>
+          <a:ext cx="408747" cy="443119"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -1157,26 +1878,26 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>74957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17816</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>74959</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
+          <a:endCxn id="27" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286249" y="3848101"/>
-          <a:ext cx="352426" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="4279623" y="3918087"/>
+          <a:ext cx="873410" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1204,29 +1925,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>202510</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>207064</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6296024" y="3848101"/>
-          <a:ext cx="504826" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="8162097" y="4257261"/>
+          <a:ext cx="4554" cy="389282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1254,63 +1972,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>34376</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="4148138"/>
-          <a:ext cx="628650" cy="309562"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9528</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>117199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1318,9 +1989,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5705475" y="4248150"/>
-          <a:ext cx="476253" cy="219076"/>
+        <a:xfrm flipV="1">
+          <a:off x="7993963" y="4224130"/>
+          <a:ext cx="7036" cy="431939"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1371,6 +2042,163 @@
         <a:xfrm flipV="1">
           <a:off x="1552575" y="4114301"/>
           <a:ext cx="751255" cy="499"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>74958</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>74965</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9319</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5980458" y="4174226"/>
+          <a:ext cx="7" cy="721832"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17816</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>132114</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153033" y="3661947"/>
+          <a:ext cx="1654864" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>90702</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>74957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>213692</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>74959</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996202" y="3918087"/>
+          <a:ext cx="1663555" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1686,19 +2514,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K86"/>
+  <dimension ref="B2:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="4.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1723,93 +2555,94 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>9.4</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>2.5</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C16" s="1" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1822,7 +2655,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" t="s">
@@ -1830,111 +2663,300 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="3" t="s">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="3" t="s">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="2"/>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="2"/>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="2"/>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C62" s="3" t="s">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="3" t="s">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+      <c r="I85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+      <c r="I86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C113" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>ツール概要</t>
     <rPh sb="3" eb="5">
@@ -170,12 +170,6 @@
     <t>4.4</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
     <t>作業編集</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -780,6 +774,325 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入した行の開始時間を引き継ぐ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業時間</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更不可。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択、または直接入力で編集可能</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更不可。開始終了時間から自動計算</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除のラジオボタンにチェックを入れると削除した作業履歴が確認できる。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日を指定してボタンを押すと、指定した年月日の作業リストが表示される。</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業リストの編集、挿入、削除、保存も可能。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業リストの編集、挿入、削除、保存は不可。</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.4.6</t>
+  </si>
+  <si>
+    <t>4.4.7</t>
+  </si>
+  <si>
+    <t>4.4.8</t>
+  </si>
+  <si>
+    <t>CSVエクスポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVエクスポートを押すと、現在表示されている作業リストの一覧をCSVファイル形式で出力する。</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力する場所はデフォルトはデスクトップ、ファイル保存ダイアログが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル選択ダイアログが表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートできるファイル形式は、出力するCSVファイル形式と同じであること。</t>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルをインポートすると、作業リストに表示される。</t>
+    <rPh sb="14" eb="16">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日はシート名とする。（形式：yyyy/MM/dd）</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新がDBに反映されていない場合、警告メッセージを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -981,28 +1294,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2514,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K117"/>
+  <dimension ref="B2:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2564,78 +2877,78 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>9.4</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>2.5</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="8"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="11"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
@@ -2665,19 +2978,19 @@
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C45" s="2"/>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C46" s="2"/>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C47" s="2"/>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
@@ -2697,19 +3010,19 @@
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C51" s="2"/>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C52" s="2"/>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C53" s="2"/>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.15">
@@ -2723,12 +3036,12 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
@@ -2739,7 +3052,7 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -2747,216 +3060,344 @@
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F76" t="s">
         <v>47</v>
       </c>
-      <c r="E74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E75" t="s">
+      <c r="I76" t="s">
+        <v>51</v>
+      </c>
+      <c r="M76" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F76" t="s">
+    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F78" t="s">
+        <v>66</v>
+      </c>
+      <c r="I78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F79" t="s">
         <v>49</v>
       </c>
-      <c r="I76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F77" t="s">
+      <c r="I79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="F80" t="s">
         <v>50</v>
       </c>
-      <c r="I77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F78" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F79" t="s">
-        <v>52</v>
+      <c r="I80" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D83" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F87" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="I87" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F88" t="s">
+        <v>49</v>
+      </c>
+      <c r="I88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+      <c r="I89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E91" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F91" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F92" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="G92" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F93" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="G93" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F94" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="G94" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F96" t="s">
+        <v>64</v>
+      </c>
+      <c r="G96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D99" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E100" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D100" s="2" t="s">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D103" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E101" t="s">
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E104" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D106" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E106" t="s">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D107" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D108" s="2"/>
+      <c r="E108" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D109" s="2"/>
+      <c r="E109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E107" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" t="s">
-        <v>29</v>
-      </c>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E113" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E114" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D116" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E116" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D121" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E121" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E122" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D127" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D128" s="2"/>
+      <c r="E128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D129" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -2,12 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計" sheetId="1" r:id="rId1"/>
+    <sheet name="画面設計" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1294,31 +1295,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2540,6 +2541,566 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="581026"/>
+          <a:ext cx="2209800" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ようこそ　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログインユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200151" y="1457325"/>
+          <a:ext cx="1238250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業登録／終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="342900"/>
+          <a:ext cx="1419225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181101" y="1981200"/>
+          <a:ext cx="1238250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業リスト表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="666751"/>
+          <a:ext cx="2209800" cy="1571624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ名：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="428625"/>
+          <a:ext cx="1419225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="866775"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638676" y="1581150"/>
+          <a:ext cx="1238250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="1228725"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -2820,7 +3381,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -2829,7 +3414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2877,79 +3462,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="10"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>9.4</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>2.5</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -3388,19 +3973,35 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -1295,31 +1295,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2797,16 +2797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2815,7 +2815,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="666751"/>
+          <a:off x="695325" y="3695701"/>
           <a:ext cx="2209800" cy="1571624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2880,16 +2880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2898,7 +2898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="428625"/>
+          <a:off x="685800" y="3457575"/>
           <a:ext cx="1419225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2935,16 +2935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2953,7 +2953,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="866775"/>
+          <a:off x="1638300" y="3895725"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2987,16 +2987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3005,7 +3005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638676" y="1581150"/>
+          <a:off x="1133476" y="4610100"/>
           <a:ext cx="1238250" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3048,16 +3048,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3066,7 +3066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="1228725"/>
+          <a:off x="1638300" y="4257675"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3093,6 +3093,1679 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="6048376"/>
+          <a:ext cx="2590800" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ユーザ名：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　パスワード：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　パスワード確認：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　権限：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="5810250"/>
+          <a:ext cx="1419225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790574" y="11410951"/>
+          <a:ext cx="2933701" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　さんの登録が完了しました。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="11172825"/>
+          <a:ext cx="1562100" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024062" y="6238876"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="7629525"/>
+          <a:ext cx="771525" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024062" y="7296151"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>▼</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="7667626"/>
+          <a:ext cx="1085850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューへ戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024062" y="6591301"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024062" y="6943726"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="8791576"/>
+          <a:ext cx="2590800" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ユーザ名：　　　　　     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XXXXXXXX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　パスワード：　　　　     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXXXXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　パスワード確認：　     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXXXXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　権限：　　　　　　　　     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXXXXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="8553450"/>
+          <a:ext cx="1562100" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="10344150"/>
+          <a:ext cx="771525" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="10382251"/>
+          <a:ext cx="1085850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067174" y="495299"/>
+          <a:ext cx="7162801" cy="3086101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>yyyy/MM/dd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　作業リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="295275"/>
+          <a:ext cx="1419225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業リスト画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5562601" y="1009650"/>
+          <a:ext cx="5524499" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305301" y="1114426"/>
+          <a:ext cx="495299" cy="263627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>挿入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314826" y="1390651"/>
+          <a:ext cx="495299" cy="263627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305301" y="1666876"/>
+          <a:ext cx="476249" cy="263627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2447926"/>
+          <a:ext cx="1142999" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エクスポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257676" y="3057526"/>
+          <a:ext cx="523874" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>履歴</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2695576"/>
+          <a:ext cx="1142999" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="3000375"/>
+          <a:ext cx="847725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;&lt; &lt; 1 &gt; &gt;&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="685800"/>
+          <a:ext cx="847725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1/1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="3057524"/>
+          <a:ext cx="762000" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>yyyy/MM/dd</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3462,79 +5135,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>9.4</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>2.5</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -3973,16 +5646,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3995,10 +5668,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -1075,10 +1075,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新がDBに反映されていない場合、警告メッセージを表示する。</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1094,6 +1090,16 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を閉じる</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1295,31 +1301,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1739,7 +1745,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ情報入力フォーム</a:t>
+            <a:t>ユーザ登録フォーム</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2545,571 +2551,494 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="グループ化 39"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="581026"/>
-          <a:ext cx="2209800" cy="2076450"/>
+          <a:off x="3857625" y="419100"/>
+          <a:ext cx="2219325" cy="2314576"/>
+          <a:chOff x="676275" y="342900"/>
+          <a:chExt cx="2219325" cy="2314576"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ようこそ　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログインユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　さん</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="581026"/>
+            <a:ext cx="2209800" cy="2076450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ようこそ　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログインユーザ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>]</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　さん</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1200151" y="1457325"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業登録／終了</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="676275" y="342900"/>
+            <a:ext cx="1419225" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>メニュー画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1181101" y="1981200"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業リスト表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1200151" y="1457325"/>
-          <a:ext cx="1238250" cy="314325"/>
+          <a:off x="790575" y="714375"/>
+          <a:ext cx="2219325" cy="1809750"/>
+          <a:chOff x="685800" y="3457575"/>
+          <a:chExt cx="2219325" cy="1809750"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業登録／終了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="342900"/>
-          <a:ext cx="1419225" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メニュー画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="695325" y="3695701"/>
+            <a:ext cx="2209800" cy="1571624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザ名：</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>パスワード：</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="3457575"/>
+            <a:ext cx="1419225" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログイン画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638300" y="3895725"/>
+            <a:ext cx="1057275" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1133476" y="4610100"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザ新規登録</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638300" y="4257675"/>
+            <a:ext cx="1057275" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181101" y="1981200"/>
-          <a:ext cx="1238250" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業リスト表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695325" y="3695701"/>
-          <a:ext cx="2209800" cy="1571624"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ名：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>パスワード：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="3457575"/>
-          <a:ext cx="1419225" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="3895725"/>
-          <a:ext cx="1057275" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1133476" y="4610100"/>
-          <a:ext cx="1238250" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="4257675"/>
-          <a:ext cx="1057275" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3118,7 +3047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="6048376"/>
+          <a:off x="704850" y="3352801"/>
           <a:ext cx="2590800" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3197,15 +3126,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3214,7 +3143,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="5810250"/>
+          <a:off x="695325" y="3114675"/>
           <a:ext cx="1419225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3251,16 +3180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3269,7 +3198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="790574" y="11410951"/>
+          <a:off x="619124" y="8201026"/>
           <a:ext cx="2933701" cy="761999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3327,16 +3256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3345,7 +3274,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="781050" y="11172825"/>
+          <a:off x="609600" y="7962900"/>
           <a:ext cx="1562100" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3383,15 +3312,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3400,7 +3329,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2024062" y="6238876"/>
+          <a:off x="2005012" y="3543301"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3435,15 +3364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3452,7 +3381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276475" y="7629525"/>
+          <a:off x="2257425" y="4933950"/>
           <a:ext cx="771525" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3496,15 +3425,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3513,7 +3442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2024062" y="7296151"/>
+          <a:off x="2005012" y="4600576"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3556,15 +3485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3573,7 +3502,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="923925" y="7667626"/>
+          <a:off x="904875" y="4972051"/>
           <a:ext cx="1085850" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3617,15 +3546,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3634,7 +3563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2024062" y="6591301"/>
+          <a:off x="2005012" y="3895726"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3669,15 +3598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3686,7 +3615,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2024062" y="6943726"/>
+          <a:off x="2005012" y="4248151"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3721,15 +3650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3738,8 +3667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="8791576"/>
-          <a:ext cx="2590800" cy="2076450"/>
+          <a:off x="704850" y="6096001"/>
+          <a:ext cx="2057400" cy="1419224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3770,7 +3699,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　ユーザ名：　　　　　     </a:t>
+            <a:t>　ユーザ名：　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3785,55 +3714,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　パスワード：　　　　     </a:t>
+            <a:t>　権限：　　　　　 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>XXXXXXXX</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　パスワード確認：　     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>XXXXXXXX</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　権限：　　　　　　　　     </a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -3856,15 +3741,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3873,7 +3758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="8553450"/>
+          <a:off x="695325" y="5857875"/>
           <a:ext cx="1562100" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3910,16 +3795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3928,8 +3813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="10344150"/>
-          <a:ext cx="771525" cy="228601"/>
+          <a:off x="1876425" y="7038975"/>
+          <a:ext cx="619125" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3972,15 +3857,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>114183</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3989,8 +3874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933450" y="10382251"/>
-          <a:ext cx="1085850" cy="209550"/>
+          <a:off x="904876" y="7038975"/>
+          <a:ext cx="580907" cy="246457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4033,742 +3918,1349 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1304926</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="グループ化 43"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4067174" y="495299"/>
-          <a:ext cx="7162801" cy="3086101"/>
+          <a:off x="4095750" y="3752850"/>
+          <a:ext cx="4038601" cy="1866900"/>
+          <a:chOff x="7258050" y="4457700"/>
+          <a:chExt cx="4038601" cy="1866900"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>yyyy/MM/dd</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　作業リスト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7267575" y="4657725"/>
+            <a:ext cx="4029076" cy="1666875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　現在の状況：未作業</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7258050" y="4457700"/>
+            <a:ext cx="1419225" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業登録画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10001250" y="5743577"/>
+            <a:ext cx="857250" cy="266698"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業開始</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524750" y="5715000"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業リスト表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="57" name="図 56"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7458075" y="5181600"/>
+            <a:ext cx="3429000" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4057650" y="295275"/>
-          <a:ext cx="1419225" cy="238125"/>
+          <a:off x="8448675" y="533400"/>
+          <a:ext cx="6886575" cy="3286125"/>
+          <a:chOff x="7200900" y="352425"/>
+          <a:chExt cx="6886575" cy="3286125"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業リスト画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>762001</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="グループ化 29"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7200900" y="352425"/>
+            <a:ext cx="6886575" cy="3286125"/>
+            <a:chOff x="4057650" y="295275"/>
+            <a:chExt cx="7172325" cy="3286125"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4067174" y="495299"/>
+              <a:ext cx="7162801" cy="3086101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>　</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>yyyy/MM/dd</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>　作業リスト</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4057650" y="295275"/>
+              <a:ext cx="1419225" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>作業リスト画面</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="1028701"/>
+              <a:ext cx="600074" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>挿入</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="1308101"/>
+              <a:ext cx="600074" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>削除</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="1587501"/>
+              <a:ext cx="576994" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>コピー</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4267200" y="2447926"/>
+              <a:ext cx="1142999" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>CSV</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>エクスポート</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4257676" y="3057526"/>
+              <a:ext cx="523874" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>履歴</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4267200" y="2695576"/>
+              <a:ext cx="1142999" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>CSV</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>インポート</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7839075" y="3000375"/>
+              <a:ext cx="847725" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>&lt;&lt; &lt; 1 &gt; &gt;&gt;</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10010775" y="685800"/>
+              <a:ext cx="847725" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>1/1 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ページ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4781550" y="3057524"/>
+              <a:ext cx="762000" cy="257176"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+                <a:t>yyyy/MM/dd</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4448175" y="3381375"/>
+              <a:ext cx="114300" cy="85725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4513269" y="3343276"/>
+              <a:ext cx="1260580" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>削除作業含む</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="2019301"/>
+              <a:ext cx="576994" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>保存</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="60" name="図 59"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8648700" y="1076325"/>
+            <a:ext cx="5314950" cy="1895475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5562601" y="1009650"/>
-          <a:ext cx="5524499" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6453</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305301" y="1114426"/>
-          <a:ext cx="495299" cy="263627"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>挿入</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>111228</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4314826" y="1390651"/>
-          <a:ext cx="495299" cy="263627"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44553</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305301" y="1666876"/>
-          <a:ext cx="476249" cy="263627"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>保存</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="2447926"/>
-          <a:ext cx="1142999" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>CSV</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>エクスポート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4257676" y="3057526"/>
-          <a:ext cx="523874" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>履歴</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="2695576"/>
-          <a:ext cx="1142999" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>CSV</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>インポート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="グループ化 60"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7839075" y="3000375"/>
-          <a:ext cx="847725" cy="228600"/>
+          <a:off x="4152900" y="6067425"/>
+          <a:ext cx="4038601" cy="3124201"/>
+          <a:chOff x="7258050" y="4457700"/>
+          <a:chExt cx="4038601" cy="3124201"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7267575" y="4657725"/>
+            <a:ext cx="4029076" cy="2924176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　現在の状況：作業中</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7258050" y="4457700"/>
+            <a:ext cx="1419225" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業登録画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10058400" y="5934077"/>
+            <a:ext cx="857250" cy="266698"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
             </a:schemeClr>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>&lt;&lt; &lt; 1 &gt; &gt;&gt;</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10010775" y="685800"/>
-          <a:ext cx="847725" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業終了</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10001250" y="7010402"/>
+            <a:ext cx="857250" cy="266698"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
             </a:schemeClr>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1/1 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4781550" y="3057524"/>
-          <a:ext cx="762000" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>yyyy/MM/dd</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業開始</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524750" y="6981825"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業リスト表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="67" name="図 66"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7458075" y="5534025"/>
+            <a:ext cx="3429000" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="68" name="図 67"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7458075" y="6448425"/>
+            <a:ext cx="3429000" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="69" name="図 68"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7458075" y="5133975"/>
+            <a:ext cx="1371600" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5088,7 +5580,7 @@
   <dimension ref="B2:M129"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5135,79 +5627,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="10"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>9.4</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>2.5</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -5632,13 +6124,13 @@
         <v>78</v>
       </c>
       <c r="E127" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2"/>
       <c r="E128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.15">
@@ -5646,16 +6138,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5668,16 +6160,19 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計" sheetId="1" r:id="rId1"/>
@@ -1075,31 +1075,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新がDBに反映されていない場合、警告メッセージを表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面を閉じる</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB未反映分はリセットされる。</t>
+    <rPh sb="2" eb="5">
+      <t>ミハンエイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1301,31 +1292,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5579,7 +5570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M129"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
@@ -5627,79 +5618,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>9.4</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>2.5</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -6124,13 +6115,13 @@
         <v>78</v>
       </c>
       <c r="E127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D128" s="2"/>
       <c r="E128" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.15">
@@ -6138,16 +6129,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6159,7 +6150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>ツール概要</t>
     <rPh sb="3" eb="5">
@@ -1091,6 +1091,16 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューへ画面遷移できるようになる。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1292,31 +1302,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2512,6 +2522,56 @@
           <a:ext cx="1663555" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>74957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17816</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148881</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4354166" y="3918087"/>
+          <a:ext cx="873411" cy="2509011"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -5254,6 +5314,67 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495549" y="8667750"/>
+          <a:ext cx="885825" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5568,10 +5689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M129"/>
+  <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5618,79 +5739,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="10"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>9.4</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>2.5</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -5768,158 +5889,156 @@
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C54" s="2"/>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D57" t="s">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E61" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D66" t="s">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
         <v>39</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E67" t="s">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C70" s="2" t="s">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D71" t="s">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D74" s="2" t="s">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D75" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E75" t="s">
+    <row r="76" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E76" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F76" t="s">
-        <v>47</v>
-      </c>
-      <c r="I76" t="s">
-        <v>51</v>
-      </c>
-      <c r="M76" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
         <v>51</v>
       </c>
+      <c r="M77" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F78" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F79" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I80" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D83" s="2" t="s">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E84" t="s">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E85" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F85" t="s">
-        <v>47</v>
-      </c>
-      <c r="I85" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
         <v>51</v>
@@ -5927,39 +6046,39 @@
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F87" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F88" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E91" t="s">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="I90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E92" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F92" t="s">
-        <v>64</v>
-      </c>
-      <c r="G92" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.15">
@@ -5967,7 +6086,7 @@
         <v>64</v>
       </c>
       <c r="G93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.15">
@@ -5975,7 +6094,7 @@
         <v>64</v>
       </c>
       <c r="G94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.15">
@@ -5983,7 +6102,7 @@
         <v>64</v>
       </c>
       <c r="G95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.15">
@@ -5991,154 +6110,162 @@
         <v>64</v>
       </c>
       <c r="G96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F97" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D99" s="2" t="s">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D100" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E100" t="s">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E101" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D103" s="2" t="s">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D104" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E104" t="s">
+    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E105" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D107" s="2" t="s">
+    <row r="108" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D108" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D108" s="2"/>
-      <c r="E108" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D109" s="2"/>
       <c r="E109" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D110" s="2"/>
+      <c r="E110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D112" s="2" t="s">
+    <row r="112" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D113" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E113" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E115" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D116" s="2" t="s">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D117" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E117" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E120" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D121" s="2" t="s">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D122" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E122" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E125" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D127" s="2" t="s">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D128" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D128" s="2"/>
-      <c r="E128" t="s">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D129" s="2"/>
+      <c r="E129" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D129" s="2"/>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D130" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6150,8 +6277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計" sheetId="1" r:id="rId1"/>
@@ -1302,31 +1302,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2831,8 +2831,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2842,9 +2842,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="790575" y="714375"/>
-          <a:ext cx="2219325" cy="1809750"/>
+          <a:ext cx="2219325" cy="2028824"/>
           <a:chOff x="685800" y="3457575"/>
-          <a:chExt cx="2219325" cy="1809750"/>
+          <a:chExt cx="2219325" cy="2028824"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2854,8 +2854,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="695325" y="3695701"/>
-            <a:ext cx="2209800" cy="1571624"/>
+            <a:off x="695325" y="3695700"/>
+            <a:ext cx="2209800" cy="1790699"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2999,7 +2999,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1133476" y="4610100"/>
+            <a:off x="1114426" y="5057775"/>
             <a:ext cx="1238250" cy="314325"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3072,6 +3072,52 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2009775" y="4562476"/>
+            <a:ext cx="676275" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログイン</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -5691,7 +5737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -5739,79 +5785,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>9.4</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>2.5</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -6256,16 +6302,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6277,8 +6323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計" sheetId="1" r:id="rId1"/>
     <sheet name="画面設計" sheetId="2" r:id="rId2"/>
+    <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1302,31 +1303,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,13 +1350,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1403,13 +1404,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1641,15 +1642,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>115129</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1658,8 +1659,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628900" y="3595688"/>
-          <a:ext cx="1657349" cy="504825"/>
+          <a:off x="2757281" y="4142339"/>
+          <a:ext cx="3289024" cy="2947573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1688,7 +1689,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン画面</a:t>
+            <a:t>アプリケーション</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1698,306 +1699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2624759" y="4488760"/>
-          <a:ext cx="1654864" cy="512279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ登録フォーム</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628900" y="5238750"/>
-          <a:ext cx="1657349" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ登録確認画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>54253</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628900" y="6067425"/>
-          <a:ext cx="1657349" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ登録完了画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>17809</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9319</xdr:rowOff>
+      <xdr:rowOff>80755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>132107</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>173728</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153026" y="4896058"/>
-          <a:ext cx="1654864" cy="512279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業登録画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>213692</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>71230</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7659757" y="3661949"/>
-          <a:ext cx="1654864" cy="512279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業リスト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>219903</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138733</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>115128</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60048</xdr:rowOff>
+      <xdr:colOff>206238</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2006,8 +1717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7922729" y="4677603"/>
-          <a:ext cx="408747" cy="443119"/>
+          <a:off x="6547818" y="6532907"/>
+          <a:ext cx="408746" cy="443119"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -2015,18 +1726,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2046,309 +1755,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3457575" y="4100513"/>
-          <a:ext cx="0" cy="309562"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3457575" y="4914900"/>
-          <a:ext cx="0" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3457575" y="5743575"/>
-          <a:ext cx="0" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>74957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>17816</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>74959</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="27" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4279623" y="3918087"/>
-          <a:ext cx="873410" cy="2"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>202510</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>207064</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>107673</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8162097" y="4257261"/>
-          <a:ext cx="4554" cy="389282"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>34376</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>41412</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>117199</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7993963" y="4224130"/>
-          <a:ext cx="7036" cy="431939"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>170951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>246430</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2390,46 +1805,659 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>74958</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>183461</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>74965</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4109418" y="4977847"/>
+          <a:ext cx="1704974" cy="2020957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・作業挿入</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・作業追加</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・作業複製</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・作業削除</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・作業編集</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・作業履歴</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>エクスポート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>インポート</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4125983" y="4283145"/>
+          <a:ext cx="901562" cy="595312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9319</xdr:rowOff>
+      <xdr:rowOff>33128</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2883592" y="4896056"/>
+          <a:ext cx="1017517" cy="371681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン認証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>216592</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2858744" y="5393013"/>
+          <a:ext cx="934691" cy="305420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16567</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66263</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="円柱 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="803415" y="4613411"/>
+          <a:ext cx="877957" cy="753717"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="円柱 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795132" y="5425106"/>
+          <a:ext cx="877957" cy="753717"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ権限</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>99393</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>49693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="円柱 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6336197" y="5052389"/>
+          <a:ext cx="977346" cy="753717"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業保存用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>140807</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21223</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="36" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5980458" y="4174226"/>
-          <a:ext cx="7" cy="721832"/>
+        <a:xfrm>
+          <a:off x="1242394" y="4613411"/>
+          <a:ext cx="1641198" cy="468486"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2440,103 +2468,47 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>17816</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132524</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>132114</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153033" y="3661947"/>
-          <a:ext cx="1654864" cy="512279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メニュー画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>90702</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>74957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>213692</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>74959</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16563</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="9" idx="1"/>
+          <a:stCxn id="46" idx="1"/>
+          <a:endCxn id="36" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5996202" y="3918087"/>
-          <a:ext cx="1663555" cy="2"/>
+        <a:xfrm flipV="1">
+          <a:off x="1234111" y="5081897"/>
+          <a:ext cx="1649481" cy="343209"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2547,46 +2519,249 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>74957</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66263</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>103531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>17816</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>148881</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>216592</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137180</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="27" idx="1"/>
+          <a:stCxn id="44" idx="4"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681372" y="4990270"/>
+          <a:ext cx="1177372" cy="555453"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4354166" y="3918087"/>
-          <a:ext cx="873411" cy="2509011"/>
+          <a:off x="1673089" y="5507935"/>
+          <a:ext cx="1142998" cy="294030"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5027545" y="4580801"/>
+          <a:ext cx="1797325" cy="471588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>99393</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="47" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5814392" y="5429248"/>
+          <a:ext cx="521805" cy="559078"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>54253</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5764696" y="6667500"/>
+          <a:ext cx="783122" cy="86967"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -5424,6 +5599,968 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311839</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="704852"/>
+          <a:ext cx="1654864" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311839</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1531663"/>
+          <a:ext cx="1654864" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録フォーム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311839</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="2372762"/>
+          <a:ext cx="1654864" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録確認画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311839</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="3213861"/>
+          <a:ext cx="1654864" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録完了画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499443</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96906</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3242643" y="1938961"/>
+          <a:ext cx="1654863" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業登録画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>262974</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546238</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5749374" y="704852"/>
+          <a:ext cx="1654864" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170208</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170208</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1541808" y="1217131"/>
+          <a:ext cx="0" cy="314532"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170208</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170208</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143912</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1541808" y="2043942"/>
+          <a:ext cx="0" cy="328820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170208</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170208</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127761</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1541808" y="2885041"/>
+          <a:ext cx="0" cy="328820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311839</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2369239" y="960990"/>
+          <a:ext cx="873411" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389282</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404606</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6561482" y="1217131"/>
+          <a:ext cx="15324" cy="697396"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168554</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6340754" y="1247775"/>
+          <a:ext cx="2896" cy="727423"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>641074</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>641081</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4070074" y="1217129"/>
+          <a:ext cx="7" cy="721832"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96913</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3242650" y="704850"/>
+          <a:ext cx="1654863" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>656818</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>262974</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4085818" y="960990"/>
+          <a:ext cx="1663556" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311839</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41001</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2369239" y="960990"/>
+          <a:ext cx="873411" cy="2509011"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530914</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="1914527"/>
+          <a:ext cx="1654864" cy="512279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業編集画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359054</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359054</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60673</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3788054" y="1228725"/>
+          <a:ext cx="0" cy="717898"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -5737,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M130"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5785,79 +6922,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="10"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>9.4</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>2.5</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -6302,16 +7439,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6323,7 +7460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6343,4 +7480,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計" sheetId="1" r:id="rId1"/>
     <sheet name="画面設計" sheetId="2" r:id="rId2"/>
-    <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
+    <sheet name="画面設計 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="画面遷移図" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>ツール概要</t>
     <rPh sb="3" eb="5">
@@ -491,34 +492,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン認証画面で、ユーザ新規登録ボタンを押下し、ユーザ情報入力フォームが表示される。</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー画面の作業登録ボタンを押下すると、作業登録画面が表示される。</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -567,22 +540,6 @@
   </si>
   <si>
     <t>4.4.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下の項目が編集可能</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カノウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -761,68 +718,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェックした行の1つ上に新規行を追加する。</t>
-    <rPh sb="6" eb="7">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>挿入した行の開始時間を引き継ぐ</t>
-    <rPh sb="0" eb="2">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業時間</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更不可。</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -841,31 +737,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更不可。開始終了時間から自動計算</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1102,6 +973,354 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で、ユーザ新規登録ボタンを押下し、ユーザ情報入力フォームが表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業時間</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンを選択し、挿入ボタンを押すと、作業フォームがモーダルでポップアップ表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の項目を入力して反映ボタンを押下すると、チェックした行の1つ上に挿入される。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンを選択し、編集ボタンを押すと、作業フォームがモーダルでポップアップ表示される。</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力欄には選択した行の情報が引き継がれる。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の項目を入力して反映ボタンを押下すると、チェックした行に反映される。</t>
+    <rPh sb="30" eb="32">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンをチェックした行の開始時間を引き継ぐ</t>
+    <rPh sb="13" eb="14">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字1文字～20文字以内</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインするユーザを入力する</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインするパスワードを入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン認証を実施。
+OKの場合、メニュー画面へ繊維し。
+NGの場合、ログイン画面にエラーメッセージを表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ新規登録</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録フォームへ画面遷移する。</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録フォーム</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1293,7 +1512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,32 +1522,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4196,7 +4418,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1304926</xdr:colOff>
+      <xdr:colOff>1085850</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -4208,9 +4430,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4095750" y="3752850"/>
-          <a:ext cx="4038601" cy="1866900"/>
+          <a:ext cx="3819525" cy="1866900"/>
           <a:chOff x="7258050" y="4457700"/>
-          <a:chExt cx="4038601" cy="1866900"/>
+          <a:chExt cx="3819525" cy="1866900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4221,7 +4443,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="7267575" y="4657725"/>
-            <a:ext cx="4029076" cy="1666875"/>
+            <a:ext cx="3810000" cy="1666875"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4344,52 +4566,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="正方形/長方形 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7524750" y="5715000"/>
-            <a:ext cx="1238250" cy="314325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>作業リスト表示</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
           <xdr:cNvPr id="57" name="図 56"/>
@@ -4443,8 +4619,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4454,9 +4630,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8448675" y="533400"/>
-          <a:ext cx="6886575" cy="3286125"/>
+          <a:ext cx="6934200" cy="4400550"/>
           <a:chOff x="7200900" y="352425"/>
-          <a:chExt cx="6886575" cy="3286125"/>
+          <a:chExt cx="6886575" cy="3922972"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -4467,9 +4643,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="7200900" y="352425"/>
-            <a:ext cx="6886575" cy="3286125"/>
+            <a:ext cx="6886575" cy="3922972"/>
             <a:chOff x="4057650" y="295275"/>
-            <a:chExt cx="7172325" cy="3286125"/>
+            <a:chExt cx="7172325" cy="3922972"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -4480,7 +4656,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4067174" y="495299"/>
-              <a:ext cx="7162801" cy="3086101"/>
+              <a:ext cx="7162801" cy="3722948"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4698,7 +4874,7 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>コピー</a:t>
+                <a:t>編集</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4710,7 +4886,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4267200" y="2447926"/>
+              <a:off x="4267200" y="2719647"/>
               <a:ext cx="1142999" cy="247650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4760,7 +4936,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4257676" y="3057526"/>
+              <a:off x="4257676" y="3329247"/>
               <a:ext cx="523874" cy="247650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4806,7 +4982,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4267200" y="2695576"/>
+              <a:off x="4267200" y="2967297"/>
               <a:ext cx="1142999" cy="247650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4856,7 +5032,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7839075" y="3000375"/>
+              <a:off x="7839075" y="3416448"/>
               <a:ext cx="847725" cy="228600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4959,7 +5135,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4781550" y="3057524"/>
+              <a:off x="4781550" y="3329245"/>
               <a:ext cx="762000" cy="257176"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5000,7 +5176,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4448175" y="3381375"/>
+              <a:off x="4448175" y="3653096"/>
               <a:ext cx="114300" cy="85725"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5037,7 +5213,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4513269" y="3343276"/>
+              <a:off x="4513269" y="3614997"/>
               <a:ext cx="1260580" cy="171450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5080,7 +5256,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4286251" y="2019301"/>
+              <a:off x="4286251" y="2291022"/>
               <a:ext cx="576994" cy="263627"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5119,6 +5295,52 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="1859223"/>
+              <a:ext cx="576994" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>複製</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
@@ -5143,7 +5365,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="8648700" y="1076325"/>
-            <a:ext cx="5314950" cy="1895475"/>
+            <a:ext cx="5314950" cy="2222574"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5171,8 +5393,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -5184,9 +5406,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4152900" y="6067425"/>
-          <a:ext cx="4038601" cy="3124201"/>
+          <a:ext cx="3810000" cy="3124201"/>
           <a:chOff x="7258050" y="4457700"/>
-          <a:chExt cx="4038601" cy="3124201"/>
+          <a:chExt cx="3810000" cy="3124201"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5197,7 +5419,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="7267575" y="4657725"/>
-            <a:ext cx="4029076" cy="2924176"/>
+            <a:ext cx="3800475" cy="2924176"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5596,10 +5818,3944 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18154650" y="8401050"/>
+          <a:ext cx="4791075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="6162676"/>
+          <a:ext cx="2333625" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　開始時間：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　終了時間：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　作業内容：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　備考：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="5924550"/>
+          <a:ext cx="1419225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1576387</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767887" y="6391276"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="7781925"/>
+          <a:ext cx="771525" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1576387</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767887" y="7448551"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1576387</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767887" y="6743701"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1576387</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767887" y="7096126"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>526369</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10567987" y="7115176"/>
+          <a:ext cx="207282" cy="195089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>564469</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10606087" y="7477126"/>
+          <a:ext cx="207282" cy="195089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3857625" y="419100"/>
+          <a:ext cx="2219325" cy="2314576"/>
+          <a:chOff x="676275" y="342900"/>
+          <a:chExt cx="2219325" cy="2314576"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="581026"/>
+            <a:ext cx="2209800" cy="2076450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ようこそ　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログインユーザ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>]</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　さん</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1200151" y="1457325"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業登録／終了</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="676275" y="342900"/>
+            <a:ext cx="1419225" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>メニュー画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1181101" y="1981200"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業リスト表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="790575" y="714375"/>
+          <a:ext cx="2219325" cy="2028824"/>
+          <a:chOff x="685800" y="3457575"/>
+          <a:chExt cx="2219325" cy="2028824"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="695325" y="3695700"/>
+            <a:ext cx="2209800" cy="1790699"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザ名：</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>パスワード：</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="3457575"/>
+            <a:ext cx="1419225" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログイン画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638300" y="3895725"/>
+            <a:ext cx="1057275" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1114426" y="5057775"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザ新規登録</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1638300" y="4257675"/>
+            <a:ext cx="1057275" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2009775" y="4562476"/>
+            <a:ext cx="676275" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログイン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="3352801"/>
+          <a:ext cx="2590800" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ユーザ名：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　パスワード：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　パスワード確認：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　権限：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="3114675"/>
+          <a:ext cx="1419225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619124" y="8201026"/>
+          <a:ext cx="2933701" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　さんの登録が完了しました。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7962900"/>
+          <a:ext cx="1562100" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2005012" y="3543301"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="4933950"/>
+          <a:ext cx="771525" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2005012" y="4600576"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>▼</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="4972051"/>
+          <a:ext cx="1085850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューへ戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2005012" y="3895726"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2005012" y="4248151"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="6096001"/>
+          <a:ext cx="2057400" cy="1419224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ユーザ名：　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XXXXXXXX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　権限：　　　　　 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXXXXXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="5857875"/>
+          <a:ext cx="1562100" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="7038975"/>
+          <a:ext cx="619125" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114183</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904876" y="7038975"/>
+          <a:ext cx="580907" cy="246457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4095750" y="3752850"/>
+          <a:ext cx="3819525" cy="1866900"/>
+          <a:chOff x="7258050" y="4457700"/>
+          <a:chExt cx="3819525" cy="1866900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7267575" y="4657725"/>
+            <a:ext cx="3810000" cy="1666875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　現在の状況：未作業</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7258050" y="4457700"/>
+            <a:ext cx="1419225" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業登録画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10001250" y="5743577"/>
+            <a:ext cx="857250" cy="266698"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業開始</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="32" name="図 31"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7458075" y="5181600"/>
+            <a:ext cx="3429000" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8448675" y="533400"/>
+          <a:ext cx="6934200" cy="4400550"/>
+          <a:chOff x="7200900" y="352425"/>
+          <a:chExt cx="6886575" cy="3922972"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7200900" y="352425"/>
+            <a:ext cx="6886575" cy="3922972"/>
+            <a:chOff x="4057650" y="295275"/>
+            <a:chExt cx="7172325" cy="3922972"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4067174" y="495299"/>
+              <a:ext cx="7162801" cy="3722948"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>　</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>yyyy/MM/dd</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>　作業リスト</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4057650" y="295275"/>
+              <a:ext cx="1419225" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>作業リスト画面</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="1028701"/>
+              <a:ext cx="600074" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>挿入</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="1308101"/>
+              <a:ext cx="600074" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>削除</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="1587501"/>
+              <a:ext cx="576994" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>編集</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4267200" y="2719647"/>
+              <a:ext cx="1142999" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>CSV</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>エクスポート</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4257676" y="3329247"/>
+              <a:ext cx="523874" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>履歴</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4267200" y="2967297"/>
+              <a:ext cx="1142999" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>CSV</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>インポート</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7839075" y="3416448"/>
+              <a:ext cx="847725" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>&lt;&lt; &lt; 1 &gt; &gt;&gt;</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10010775" y="685800"/>
+              <a:ext cx="847725" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>1/1 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ページ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4781550" y="3329245"/>
+              <a:ext cx="762000" cy="257176"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+                <a:t>yyyy/MM/dd</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4448175" y="3653096"/>
+              <a:ext cx="114300" cy="85725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4513269" y="3614997"/>
+              <a:ext cx="1260580" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>削除作業含む</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="2291022"/>
+              <a:ext cx="576994" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>保存</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286251" y="1859223"/>
+              <a:ext cx="576994" cy="263627"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>複製</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="図 34"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8648700" y="1076325"/>
+            <a:ext cx="5314950" cy="2222574"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="グループ化 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4152900" y="6067425"/>
+          <a:ext cx="3810000" cy="3124201"/>
+          <a:chOff x="7258050" y="4457700"/>
+          <a:chExt cx="3810000" cy="3124201"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7267575" y="4657725"/>
+            <a:ext cx="3800475" cy="2924176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　現在の状況：作業中</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7258050" y="4457700"/>
+            <a:ext cx="1419225" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業登録画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10058400" y="5934077"/>
+            <a:ext cx="857250" cy="266698"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業終了</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10001250" y="7010402"/>
+            <a:ext cx="857250" cy="266698"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業開始</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524750" y="6981825"/>
+            <a:ext cx="1238250" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>作業リスト表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="57" name="図 56"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7458075" y="5534025"/>
+            <a:ext cx="3429000" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="58" name="図 57"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7458075" y="6448425"/>
+            <a:ext cx="3429000" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="59" name="図 58"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7458075" y="5133975"/>
+            <a:ext cx="1371600" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495549" y="8667750"/>
+          <a:ext cx="885825" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18154650" y="8401050"/>
+          <a:ext cx="4791075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="6162676"/>
+          <a:ext cx="2333625" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　開始時間：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　終了時間：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　作業内容：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　備考：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="5924550"/>
+          <a:ext cx="1419225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1576387</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767887" y="6391276"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="7781925"/>
+          <a:ext cx="771525" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1576387</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767887" y="7448551"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1576387</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767887" y="6743701"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1576387</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767887" y="7096126"/>
+          <a:ext cx="1057275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>526369</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10567987" y="7115176"/>
+          <a:ext cx="207282" cy="195089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>564469</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10606087" y="7477126"/>
+          <a:ext cx="207282" cy="195089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6503,7 +10659,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業編集画面</a:t>
+            <a:t>作業フォーム</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -6559,6 +10715,32 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="V50:Z51" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+    <tableColumn id="5" name="列5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="V50:Z51" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+    <tableColumn id="5" name="列5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6872,10 +11054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M130"/>
+  <dimension ref="B2:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+    <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6922,79 +11104,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>9.4</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>2.5</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -7055,7 +11237,7 @@
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C51" s="2"/>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
@@ -7073,7 +11255,7 @@
     <row r="54" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C54" s="2"/>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.15">
@@ -7092,7 +11274,7 @@
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.15">
@@ -7147,308 +11329,349 @@
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D76" s="2"/>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F77" t="s">
-        <v>47</v>
-      </c>
-      <c r="I77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M77" t="s">
-        <v>65</v>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F79" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="M79" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F81" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E83" t="s">
         <v>50</v>
-      </c>
-      <c r="I81" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D84" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" t="s">
-        <v>23</v>
+      <c r="F84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E85" t="s">
-        <v>46</v>
+      <c r="F85" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F86" t="s">
-        <v>47</v>
-      </c>
-      <c r="I86" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="G86" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F87" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F88" t="s">
-        <v>66</v>
-      </c>
-      <c r="I88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F89" t="s">
-        <v>49</v>
-      </c>
-      <c r="I89" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="G87" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F90" t="s">
-        <v>50</v>
-      </c>
-      <c r="I90" t="s">
-        <v>68</v>
+      <c r="D90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D91" s="2"/>
+      <c r="E91" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E92" t="s">
-        <v>52</v>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F93" t="s">
-        <v>64</v>
-      </c>
-      <c r="G93" t="s">
-        <v>53</v>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F94" t="s">
-        <v>64</v>
-      </c>
-      <c r="G94" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="I94" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F95" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F96" t="s">
-        <v>64</v>
-      </c>
-      <c r="G96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F100" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F101" t="s">
+        <v>61</v>
+      </c>
+      <c r="G101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F102" t="s">
+        <v>61</v>
+      </c>
+      <c r="G102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F103" t="s">
+        <v>61</v>
+      </c>
+      <c r="G103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F104" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D107" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F97" t="s">
-        <v>64</v>
-      </c>
-      <c r="G97" t="s">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E108" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D100" s="2" t="s">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D111" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E100" t="s">
-        <v>24</v>
+      <c r="E111" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E101" t="s">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E112" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D104" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E105" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D108" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D109" s="2"/>
-      <c r="E109" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D110" s="2"/>
-      <c r="E110" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D113" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E114" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D115" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E115" t="s">
-        <v>75</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D116" s="2"/>
+      <c r="E116" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D117" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="D117" s="2"/>
       <c r="E117" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E118" t="s">
-        <v>80</v>
-      </c>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E119" t="s">
-        <v>81</v>
-      </c>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D120" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E120" t="s">
-        <v>86</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E121" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D122" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E122" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E123" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D124" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E124" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E125" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D128" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E128" t="s">
-        <v>87</v>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E126" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E127" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E129" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D130" s="2"/>
+      <c r="E130" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E131" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E132" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D135" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E135" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D136" s="2"/>
+      <c r="E136" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D137" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7458,10 +11681,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B42:Z64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane ySplit="3780" topLeftCell="A62" activePane="bottomLeft"/>
+      <selection activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7471,22 +11696,192 @@
     <col min="9" max="9" width="11.125" customWidth="1"/>
     <col min="10" max="10" width="17.875" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
-    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.875" customWidth="1"/>
     <col min="21" max="21" width="25.875" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="22" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="17.75" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="V50" t="s">
+        <v>84</v>
+      </c>
+      <c r="W50" t="s">
+        <v>85</v>
+      </c>
+      <c r="X50" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" ht="135" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="V50:Z50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="17" max="17" width="5.875" customWidth="1"/>
+    <col min="21" max="21" width="25.875" customWidth="1"/>
+    <col min="22" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="50" spans="22:26" x14ac:dyDescent="0.15">
+      <c r="V50" t="s">
+        <v>84</v>
+      </c>
+      <c r="W50" t="s">
+        <v>85</v>
+      </c>
+      <c r="X50" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
   <si>
     <t>ツール概要</t>
     <rPh sb="3" eb="5">
@@ -1324,6 +1324,53 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認用パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1355,15 +1402,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1506,13 +1559,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1522,35 +1612,50 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2999,33 +3104,33 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="40" name="グループ化 39"/>
+        <xdr:cNvPr id="151" name="グループ化 150"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3857625" y="419100"/>
-          <a:ext cx="2219325" cy="2314576"/>
+          <a:off x="3933825" y="171450"/>
+          <a:ext cx="2324100" cy="2314576"/>
           <a:chOff x="676275" y="342900"/>
           <a:chExt cx="2219325" cy="2314576"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+          <xdr:cNvPr id="152" name="正方形/長方形 151"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3085,7 +3190,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvPr id="153" name="正方形/長方形 152"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3131,7 +3236,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvPr id="154" name="正方形/長方形 153"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3171,7 +3276,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="155" name="正方形/長方形 154"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3221,24 +3326,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="41" name="グループ化 40"/>
+        <xdr:cNvPr id="156" name="グループ化 155"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="790575" y="714375"/>
+          <a:off x="866775" y="466725"/>
           <a:ext cx="2219325" cy="2028824"/>
           <a:chOff x="685800" y="3457575"/>
           <a:chExt cx="2219325" cy="2028824"/>
@@ -3246,7 +3351,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvPr id="157" name="正方形/長方形 156"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3314,7 +3419,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvPr id="158" name="正方形/長方形 157"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3354,7 +3459,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvPr id="159" name="正方形/長方形 158"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3391,7 +3496,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvPr id="160" name="正方形/長方形 159"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3437,7 +3542,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvPr id="161" name="正方形/長方形 160"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3474,7 +3579,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+          <xdr:cNvPr id="162" name="正方形/長方形 161"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3524,24 +3629,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="3352801"/>
+          <a:off x="781050" y="3105151"/>
           <a:ext cx="2590800" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3609,9 +3714,20 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　権限：</a:t>
+            <a:t>　権限：　　　　　　　　　　</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>admin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>user</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3620,24 +3736,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="164" name="正方形/長方形 163"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="3114675"/>
+          <a:off x="771525" y="2867025"/>
           <a:ext cx="1419225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3674,25 +3790,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619124" y="8201026"/>
+          <a:off x="695324" y="7953376"/>
           <a:ext cx="2933701" cy="761999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3750,25 +3866,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="7962900"/>
+          <a:off x="685800" y="7715250"/>
           <a:ext cx="1562100" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3806,24 +3922,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="167" name="正方形/長方形 166"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2005012" y="3543301"/>
+          <a:off x="2081212" y="3295651"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3857,25 +3973,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="168" name="正方形/長方形 167"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2257425" y="4933950"/>
+          <a:off x="2333625" y="4686300"/>
           <a:ext cx="771525" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3918,85 +4034,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="170" name="正方形/長方形 169"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2005012" y="4600576"/>
-          <a:ext cx="1057275" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>▼</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="4972051"/>
+          <a:off x="981075" y="4724401"/>
           <a:ext cx="1085850" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4040,24 +4096,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="171" name="正方形/長方形 170"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2005012" y="3895726"/>
+          <a:off x="2081212" y="3648076"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4092,24 +4148,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="172" name="正方形/長方形 171"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2005012" y="4248151"/>
+          <a:off x="2081212" y="4000501"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4144,24 +4200,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="173" name="正方形/長方形 172"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="6096001"/>
+          <a:off x="781050" y="5848351"/>
           <a:ext cx="2057400" cy="1419224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4235,24 +4291,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="174" name="正方形/長方形 173"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="5857875"/>
+          <a:off x="771525" y="5610225"/>
           <a:ext cx="1562100" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4289,25 +4345,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="175" name="正方形/長方形 174"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876425" y="7038975"/>
+          <a:off x="1952625" y="6791325"/>
           <a:ext cx="619125" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4351,24 +4407,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114183</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>84532</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876183</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8332</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="176" name="正方形/長方形 175"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904876" y="7038975"/>
+          <a:off x="981076" y="6791325"/>
           <a:ext cx="580907" cy="246457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4411,25 +4467,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="44" name="グループ化 43"/>
+        <xdr:cNvPr id="177" name="グループ化 176"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="3752850"/>
+          <a:off x="4276725" y="3505200"/>
           <a:ext cx="3819525" cy="1866900"/>
           <a:chOff x="7258050" y="4457700"/>
           <a:chExt cx="3819525" cy="1866900"/>
@@ -4437,7 +4493,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+          <xdr:cNvPr id="178" name="正方形/長方形 177"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4482,7 +4538,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvPr id="179" name="正方形/長方形 178"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4522,7 +4578,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvPr id="180" name="正方形/長方形 179"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4568,7 +4624,7 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="57" name="図 56"/>
+          <xdr:cNvPr id="181" name="図 180"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -4611,25 +4667,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="42" name="グループ化 41"/>
+        <xdr:cNvPr id="182" name="グループ化 181"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8448675" y="533400"/>
+          <a:off x="8629650" y="285750"/>
           <a:ext cx="6934200" cy="4400550"/>
           <a:chOff x="7200900" y="352425"/>
           <a:chExt cx="6886575" cy="3922972"/>
@@ -4637,7 +4693,7 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="30" name="グループ化 29"/>
+          <xdr:cNvPr id="183" name="グループ化 182"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4650,7 +4706,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+            <xdr:cNvPr id="185" name="正方形/長方形 184"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4703,7 +4759,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+            <xdr:cNvPr id="186" name="正方形/長方形 185"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4743,7 +4799,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+            <xdr:cNvPr id="187" name="正方形/長方形 186"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4789,7 +4845,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+            <xdr:cNvPr id="188" name="正方形/長方形 187"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4835,7 +4891,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+            <xdr:cNvPr id="189" name="正方形/長方形 188"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4881,7 +4937,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+            <xdr:cNvPr id="190" name="正方形/長方形 189"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4931,7 +4987,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+            <xdr:cNvPr id="191" name="正方形/長方形 190"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4977,7 +5033,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+            <xdr:cNvPr id="192" name="正方形/長方形 191"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5027,7 +5083,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+            <xdr:cNvPr id="193" name="テキスト ボックス 192"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5077,7 +5133,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+            <xdr:cNvPr id="194" name="テキスト ボックス 193"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5130,7 +5186,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+            <xdr:cNvPr id="195" name="正方形/長方形 194"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5171,7 +5227,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+            <xdr:cNvPr id="196" name="正方形/長方形 195"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5208,7 +5264,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+            <xdr:cNvPr id="197" name="テキスト ボックス 196"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5251,7 +5307,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvPr id="198" name="正方形/長方形 197"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5297,7 +5353,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+            <xdr:cNvPr id="199" name="正方形/長方形 198"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5344,7 +5400,7 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="60" name="図 59"/>
+          <xdr:cNvPr id="184" name="図 183"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -5387,25 +5443,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="61" name="グループ化 60"/>
+        <xdr:cNvPr id="200" name="グループ化 199"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4152900" y="6067425"/>
+          <a:off x="4333875" y="5819775"/>
           <a:ext cx="3810000" cy="3124201"/>
           <a:chOff x="7258050" y="4457700"/>
           <a:chExt cx="3810000" cy="3124201"/>
@@ -5413,7 +5469,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+          <xdr:cNvPr id="201" name="正方形/長方形 200"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5458,7 +5514,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+          <xdr:cNvPr id="202" name="正方形/長方形 201"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5498,7 +5554,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+          <xdr:cNvPr id="203" name="正方形/長方形 202"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5544,7 +5600,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+          <xdr:cNvPr id="204" name="正方形/長方形 203"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5590,7 +5646,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+          <xdr:cNvPr id="205" name="正方形/長方形 204"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5636,7 +5692,7 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="67" name="図 66"/>
+          <xdr:cNvPr id="206" name="図 205"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -5676,7 +5732,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="68" name="図 67"/>
+          <xdr:cNvPr id="207" name="図 206"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -5716,7 +5772,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="69" name="図 68"/>
+          <xdr:cNvPr id="208" name="図 207"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -5759,25 +5815,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvPr id="209" name="正方形/長方形 208"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2495549" y="8667750"/>
+          <a:off x="2571749" y="8420100"/>
           <a:ext cx="885825" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5820,20 +5876,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="図 79"/>
+        <xdr:cNvPr id="210" name="図 209"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5853,7 +5909,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18154650" y="8401050"/>
+          <a:off x="18230850" y="8153400"/>
           <a:ext cx="4791075" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5875,25 +5931,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2486025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvPr id="211" name="正方形/長方形 210"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8696325" y="6162676"/>
+          <a:off x="8772525" y="5915026"/>
           <a:ext cx="2333625" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5971,25 +6027,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvPr id="212" name="正方形/長方形 211"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="5924550"/>
+          <a:off x="8763000" y="5676900"/>
           <a:ext cx="1419225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6026,25 +6082,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1576387</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+        <xdr:cNvPr id="213" name="正方形/長方形 212"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767887" y="6391276"/>
+          <a:off x="9844087" y="6143626"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6078,25 +6134,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+        <xdr:cNvPr id="214" name="正方形/長方形 213"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10020300" y="7781925"/>
+          <a:off x="10096500" y="7534275"/>
           <a:ext cx="771525" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6139,25 +6195,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1576387</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvPr id="215" name="正方形/長方形 214"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767887" y="7448551"/>
+          <a:off x="9844087" y="7200901"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6194,25 +6250,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1576387</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvPr id="216" name="正方形/長方形 215"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767887" y="6743701"/>
+          <a:off x="9844087" y="6496051"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6246,25 +6302,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1576387</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+        <xdr:cNvPr id="217" name="正方形/長方形 216"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767887" y="7096126"/>
+          <a:off x="9844087" y="6848476"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6298,20 +6354,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>871537</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>526369</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>109365</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107269</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="218" name="図 217"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6324,7 +6380,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10567987" y="7115176"/>
+          <a:off x="10644187" y="6867526"/>
           <a:ext cx="207282" cy="195089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6336,20 +6392,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>909637</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>564469</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>128415</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145369</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="図 90"/>
+        <xdr:cNvPr id="219" name="図 218"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6362,7 +6418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10606087" y="7477126"/>
+          <a:off x="10682287" y="7229476"/>
           <a:ext cx="207282" cy="195089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6370,6 +6426,110 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158130</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="4410075"/>
+          <a:ext cx="110505" cy="96161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>720105</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="4419600"/>
+          <a:ext cx="110505" cy="96161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10718,7 +10878,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="V50:Z51" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="U50:Y51" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="列1"/>
     <tableColumn id="2" name="列2"/>
@@ -11104,79 +11264,79 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="10"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>9.4</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>2.5</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -11662,16 +11822,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11681,142 +11841,2918 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B42:Z64"/>
+  <dimension ref="B50:Y452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane ySplit="3780" topLeftCell="A62" activePane="bottomLeft"/>
-      <selection activeCell="D18" sqref="D18"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="17430" ySplit="3240" topLeftCell="H63" activePane="bottomLeft"/>
+      <selection activeCell="D26" sqref="D26"/>
+      <selection pane="topRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="27" customWidth="1"/>
-    <col min="17" max="17" width="5.875" customWidth="1"/>
-    <col min="21" max="21" width="25.875" customWidth="1"/>
-    <col min="22" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="16" max="16" width="5.875" customWidth="1"/>
+    <col min="20" max="20" width="25.875" customWidth="1"/>
+    <col min="21" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="U50" t="s">
+        <v>84</v>
+      </c>
+      <c r="V50" t="s">
+        <v>85</v>
+      </c>
+      <c r="W50" t="s">
+        <v>86</v>
+      </c>
+      <c r="X50" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B57" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B58" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="V50" t="s">
-        <v>84</v>
-      </c>
-      <c r="W50" t="s">
-        <v>85</v>
-      </c>
-      <c r="X50" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+      <c r="C58" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B59" s="16"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B60" s="16"/>
+      <c r="C60" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B61" s="16"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" ht="135" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="16"/>
+      <c r="C62" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C58" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="D62" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B63" s="17"/>
+      <c r="C63" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B64" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G58" t="s">
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="16"/>
+      <c r="C65" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="16"/>
+      <c r="C66" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="D59" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="16"/>
+      <c r="C67" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F59" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="16"/>
+      <c r="C68" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G60" t="s">
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="16"/>
+      <c r="C69" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="16"/>
+      <c r="C70" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="D61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="2:26" ht="135" x14ac:dyDescent="0.15">
-      <c r="C62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" t="s">
-        <v>109</v>
-      </c>
-      <c r="G63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="16"/>
+      <c r="C71" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="16"/>
+      <c r="C72" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="17"/>
+      <c r="C73" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B175" s="13"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B183" s="13"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B185" s="13"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B187" s="13"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B189" s="13"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B191" s="13"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B201" s="13"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B203" s="13"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B206" s="13"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B209" s="13"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B211" s="13"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B213" s="13"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B215" s="13"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B219" s="13"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B220" s="13"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B221" s="13"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B226" s="13"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B233" s="13"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B239" s="13"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B243" s="13"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B245" s="13"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="13"/>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B246" s="13"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B247" s="13"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="13"/>
+      <c r="F247" s="13"/>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B248" s="13"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B249" s="13"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13"/>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B255" s="13"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B256" s="13"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B257" s="13"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B259" s="13"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="13"/>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B264" s="13"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B265" s="13"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13"/>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B270" s="13"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="13"/>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="13"/>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B274" s="13"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="13"/>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="13"/>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B277" s="13"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13"/>
+      <c r="E277" s="13"/>
+      <c r="F277" s="13"/>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="13"/>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B279" s="13"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13"/>
+      <c r="E279" s="13"/>
+      <c r="F279" s="13"/>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B280" s="13"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="13"/>
+      <c r="E280" s="13"/>
+      <c r="F280" s="13"/>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B281" s="13"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
+      <c r="E281" s="13"/>
+      <c r="F281" s="13"/>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B282" s="13"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="13"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="13"/>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B283" s="13"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="13"/>
+      <c r="E283" s="13"/>
+      <c r="F283" s="13"/>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B284" s="13"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="13"/>
+      <c r="F284" s="13"/>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B285" s="13"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="13"/>
+      <c r="E285" s="13"/>
+      <c r="F285" s="13"/>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B286" s="13"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B287" s="13"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="13"/>
+      <c r="F287" s="13"/>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B289" s="13"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="13"/>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B290" s="13"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B291" s="13"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="13"/>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B292" s="13"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="13"/>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B293" s="13"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="13"/>
+      <c r="E293" s="13"/>
+      <c r="F293" s="13"/>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B294" s="13"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B295" s="13"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="13"/>
+      <c r="E295" s="13"/>
+      <c r="F295" s="13"/>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B297" s="13"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="13"/>
+      <c r="F297" s="13"/>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="13"/>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B299" s="13"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="13"/>
+      <c r="E299" s="13"/>
+      <c r="F299" s="13"/>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B300" s="13"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B301" s="13"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B302" s="13"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B303" s="13"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="13"/>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B304" s="13"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="13"/>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B306" s="13"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B307" s="13"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="13"/>
+      <c r="F307" s="13"/>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B308" s="13"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="13"/>
+      <c r="E308" s="13"/>
+      <c r="F308" s="13"/>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B309" s="13"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="13"/>
+      <c r="E309" s="13"/>
+      <c r="F309" s="13"/>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B310" s="13"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="13"/>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B312" s="13"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B313" s="13"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B314" s="13"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B315" s="13"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B316" s="13"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B317" s="13"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="13"/>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B318" s="13"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="13"/>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B319" s="13"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B320" s="13"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="13"/>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B321" s="13"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="13"/>
+      <c r="E321" s="13"/>
+      <c r="F321" s="13"/>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B322" s="13"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13"/>
+      <c r="F322" s="13"/>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B323" s="13"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="13"/>
+      <c r="E323" s="13"/>
+      <c r="F323" s="13"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B324" s="13"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="13"/>
+      <c r="E324" s="13"/>
+      <c r="F324" s="13"/>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B325" s="13"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="13"/>
+      <c r="E325" s="13"/>
+      <c r="F325" s="13"/>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B326" s="13"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B327" s="13"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="13"/>
+      <c r="F327" s="13"/>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B328" s="13"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="13"/>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B329" s="13"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="13"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="13"/>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B330" s="13"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="13"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="13"/>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B331" s="13"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="13"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="13"/>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B332" s="13"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B333" s="13"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B334" s="13"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B335" s="13"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B336" s="13"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B337" s="13"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="13"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="13"/>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B338" s="13"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="13"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="13"/>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B339" s="13"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B340" s="13"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="13"/>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B341" s="13"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B342" s="13"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B343" s="13"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B345" s="13"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B346" s="13"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B347" s="13"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="13"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B348" s="13"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="13"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B349" s="13"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="13"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B350" s="13"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="13"/>
+      <c r="E350" s="13"/>
+      <c r="F350" s="13"/>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B351" s="13"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="13"/>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B352" s="13"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="13"/>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B353" s="13"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="13"/>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B354" s="13"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="13"/>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B355" s="13"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="13"/>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B356" s="13"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="13"/>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B357" s="13"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="13"/>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B358" s="13"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="13"/>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B359" s="13"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="13"/>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B360" s="13"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="13"/>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B361" s="13"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="13"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="13"/>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B362" s="13"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="13"/>
+      <c r="F362" s="13"/>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B363" s="13"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="13"/>
+      <c r="F363" s="13"/>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B364" s="13"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="13"/>
+      <c r="E364" s="13"/>
+      <c r="F364" s="13"/>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B365" s="13"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="13"/>
+      <c r="E365" s="13"/>
+      <c r="F365" s="13"/>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B366" s="13"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="13"/>
+      <c r="E366" s="13"/>
+      <c r="F366" s="13"/>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B367" s="13"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="13"/>
+      <c r="E367" s="13"/>
+      <c r="F367" s="13"/>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B368" s="13"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="13"/>
+      <c r="E368" s="13"/>
+      <c r="F368" s="13"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B369" s="13"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="13"/>
+      <c r="E369" s="13"/>
+      <c r="F369" s="13"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B370" s="13"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="13"/>
+      <c r="E370" s="13"/>
+      <c r="F370" s="13"/>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B371" s="13"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="13"/>
+      <c r="E371" s="13"/>
+      <c r="F371" s="13"/>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B372" s="13"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="13"/>
+      <c r="E372" s="13"/>
+      <c r="F372" s="13"/>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B373" s="13"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="13"/>
+      <c r="E373" s="13"/>
+      <c r="F373" s="13"/>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B374" s="13"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="13"/>
+      <c r="E374" s="13"/>
+      <c r="F374" s="13"/>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B375" s="13"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="13"/>
+      <c r="F375" s="13"/>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B376" s="13"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="13"/>
+      <c r="E376" s="13"/>
+      <c r="F376" s="13"/>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B377" s="13"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="13"/>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B378" s="13"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="13"/>
+      <c r="E378" s="13"/>
+      <c r="F378" s="13"/>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B379" s="13"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="13"/>
+      <c r="E379" s="13"/>
+      <c r="F379" s="13"/>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B380" s="13"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="13"/>
+      <c r="E380" s="13"/>
+      <c r="F380" s="13"/>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B381" s="13"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="13"/>
+      <c r="E381" s="13"/>
+      <c r="F381" s="13"/>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B382" s="13"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="13"/>
+      <c r="E382" s="13"/>
+      <c r="F382" s="13"/>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B383" s="13"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="13"/>
+      <c r="E383" s="13"/>
+      <c r="F383" s="13"/>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B384" s="13"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="13"/>
+      <c r="E384" s="13"/>
+      <c r="F384" s="13"/>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B385" s="13"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="13"/>
+      <c r="E385" s="13"/>
+      <c r="F385" s="13"/>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B386" s="13"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="13"/>
+      <c r="E386" s="13"/>
+      <c r="F386" s="13"/>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B387" s="13"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="13"/>
+      <c r="E387" s="13"/>
+      <c r="F387" s="13"/>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B388" s="13"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="13"/>
+      <c r="E388" s="13"/>
+      <c r="F388" s="13"/>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B389" s="13"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="13"/>
+      <c r="E389" s="13"/>
+      <c r="F389" s="13"/>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B390" s="13"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="13"/>
+      <c r="E390" s="13"/>
+      <c r="F390" s="13"/>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B391" s="13"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="13"/>
+      <c r="E391" s="13"/>
+      <c r="F391" s="13"/>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B392" s="13"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="13"/>
+      <c r="E392" s="13"/>
+      <c r="F392" s="13"/>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B393" s="13"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="13"/>
+      <c r="E393" s="13"/>
+      <c r="F393" s="13"/>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B394" s="13"/>
+      <c r="C394" s="13"/>
+      <c r="D394" s="13"/>
+      <c r="E394" s="13"/>
+      <c r="F394" s="13"/>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B395" s="13"/>
+      <c r="C395" s="13"/>
+      <c r="D395" s="13"/>
+      <c r="E395" s="13"/>
+      <c r="F395" s="13"/>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B396" s="13"/>
+      <c r="C396" s="13"/>
+      <c r="D396" s="13"/>
+      <c r="E396" s="13"/>
+      <c r="F396" s="13"/>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B397" s="13"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="13"/>
+      <c r="E397" s="13"/>
+      <c r="F397" s="13"/>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B398" s="13"/>
+      <c r="C398" s="13"/>
+      <c r="D398" s="13"/>
+      <c r="E398" s="13"/>
+      <c r="F398" s="13"/>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B399" s="13"/>
+      <c r="C399" s="13"/>
+      <c r="D399" s="13"/>
+      <c r="E399" s="13"/>
+      <c r="F399" s="13"/>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B400" s="13"/>
+      <c r="C400" s="13"/>
+      <c r="D400" s="13"/>
+      <c r="E400" s="13"/>
+      <c r="F400" s="13"/>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B401" s="13"/>
+      <c r="C401" s="13"/>
+      <c r="D401" s="13"/>
+      <c r="E401" s="13"/>
+      <c r="F401" s="13"/>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B402" s="13"/>
+      <c r="C402" s="13"/>
+      <c r="D402" s="13"/>
+      <c r="E402" s="13"/>
+      <c r="F402" s="13"/>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B403" s="13"/>
+      <c r="C403" s="13"/>
+      <c r="D403" s="13"/>
+      <c r="E403" s="13"/>
+      <c r="F403" s="13"/>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B404" s="13"/>
+      <c r="C404" s="13"/>
+      <c r="D404" s="13"/>
+      <c r="E404" s="13"/>
+      <c r="F404" s="13"/>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B405" s="13"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="13"/>
+      <c r="E405" s="13"/>
+      <c r="F405" s="13"/>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B406" s="13"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="13"/>
+      <c r="E406" s="13"/>
+      <c r="F406" s="13"/>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B407" s="13"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="13"/>
+      <c r="E407" s="13"/>
+      <c r="F407" s="13"/>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B408" s="13"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="13"/>
+      <c r="E408" s="13"/>
+      <c r="F408" s="13"/>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B409" s="13"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="13"/>
+      <c r="E409" s="13"/>
+      <c r="F409" s="13"/>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B410" s="13"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="13"/>
+      <c r="E410" s="13"/>
+      <c r="F410" s="13"/>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B411" s="13"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="13"/>
+      <c r="E411" s="13"/>
+      <c r="F411" s="13"/>
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B412" s="13"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="13"/>
+      <c r="E412" s="13"/>
+      <c r="F412" s="13"/>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B413" s="13"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="13"/>
+      <c r="E413" s="13"/>
+      <c r="F413" s="13"/>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B414" s="13"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="13"/>
+      <c r="E414" s="13"/>
+      <c r="F414" s="13"/>
+    </row>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B415" s="13"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="13"/>
+      <c r="E415" s="13"/>
+      <c r="F415" s="13"/>
+    </row>
+    <row r="416" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B416" s="13"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="13"/>
+      <c r="E416" s="13"/>
+      <c r="F416" s="13"/>
+    </row>
+    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B417" s="13"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="13"/>
+      <c r="E417" s="13"/>
+      <c r="F417" s="13"/>
+    </row>
+    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B418" s="13"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="13"/>
+      <c r="E418" s="13"/>
+      <c r="F418" s="13"/>
+    </row>
+    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B419" s="13"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="13"/>
+      <c r="F419" s="13"/>
+    </row>
+    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B420" s="13"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="13"/>
+      <c r="E420" s="13"/>
+      <c r="F420" s="13"/>
+    </row>
+    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B421" s="13"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="13"/>
+      <c r="E421" s="13"/>
+      <c r="F421" s="13"/>
+    </row>
+    <row r="422" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B422" s="13"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="13"/>
+      <c r="F422" s="13"/>
+    </row>
+    <row r="423" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B423" s="13"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
+    </row>
+    <row r="424" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B424" s="13"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+    </row>
+    <row r="425" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B425" s="13"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
+      <c r="F425" s="13"/>
+    </row>
+    <row r="426" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B426" s="13"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="13"/>
+      <c r="F426" s="13"/>
+    </row>
+    <row r="427" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B427" s="13"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="13"/>
+      <c r="F427" s="13"/>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B428" s="13"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="13"/>
+      <c r="F428" s="13"/>
+    </row>
+    <row r="429" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B429" s="13"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="13"/>
+      <c r="F429" s="13"/>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B430" s="13"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+    </row>
+    <row r="431" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B431" s="13"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="13"/>
+      <c r="E431" s="13"/>
+      <c r="F431" s="13"/>
+    </row>
+    <row r="432" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B432" s="13"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="13"/>
+      <c r="E432" s="13"/>
+      <c r="F432" s="13"/>
+    </row>
+    <row r="433" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B433" s="13"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="13"/>
+      <c r="E433" s="13"/>
+      <c r="F433" s="13"/>
+    </row>
+    <row r="434" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B434" s="13"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+    </row>
+    <row r="435" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B435" s="13"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="13"/>
+      <c r="F435" s="13"/>
+    </row>
+    <row r="436" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B436" s="13"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="13"/>
+      <c r="F436" s="13"/>
+    </row>
+    <row r="437" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B437" s="13"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="13"/>
+      <c r="F437" s="13"/>
+    </row>
+    <row r="438" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B438" s="13"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="13"/>
+      <c r="F438" s="13"/>
+    </row>
+    <row r="439" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B439" s="13"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="13"/>
+      <c r="E439" s="13"/>
+      <c r="F439" s="13"/>
+    </row>
+    <row r="440" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B440" s="13"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="13"/>
+      <c r="F440" s="13"/>
+    </row>
+    <row r="441" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B441" s="13"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="13"/>
+      <c r="E441" s="13"/>
+      <c r="F441" s="13"/>
+    </row>
+    <row r="442" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B442" s="13"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="13"/>
+      <c r="E442" s="13"/>
+      <c r="F442" s="13"/>
+    </row>
+    <row r="443" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B443" s="13"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="13"/>
+      <c r="E443" s="13"/>
+      <c r="F443" s="13"/>
+    </row>
+    <row r="444" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B444" s="13"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="13"/>
+      <c r="E444" s="13"/>
+      <c r="F444" s="13"/>
+    </row>
+    <row r="445" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B445" s="13"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="13"/>
+      <c r="E445" s="13"/>
+      <c r="F445" s="13"/>
+    </row>
+    <row r="446" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B446" s="13"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="13"/>
+      <c r="E446" s="13"/>
+      <c r="F446" s="13"/>
+    </row>
+    <row r="447" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B447" s="13"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="13"/>
+      <c r="E447" s="13"/>
+      <c r="F447" s="13"/>
+    </row>
+    <row r="448" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B448" s="13"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="13"/>
+      <c r="E448" s="13"/>
+      <c r="F448" s="13"/>
+    </row>
+    <row r="449" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B449" s="13"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="13"/>
+      <c r="E449" s="13"/>
+      <c r="F449" s="13"/>
+    </row>
+    <row r="450" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B450" s="13"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="13"/>
+      <c r="E450" s="13"/>
+      <c r="F450" s="13"/>
+    </row>
+    <row r="451" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B451" s="13"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="13"/>
+      <c r="E451" s="13"/>
+      <c r="F451" s="13"/>
+    </row>
+    <row r="452" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B452" s="13"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="13"/>
+      <c r="E452" s="13"/>
+      <c r="F452" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B73"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11830,7 +14766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="V50:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計" sheetId="1" r:id="rId1"/>
     <sheet name="画面設計" sheetId="2" r:id="rId2"/>
-    <sheet name="画面設計 (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="画面遷移図" sheetId="3" r:id="rId4"/>
+    <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="224">
   <si>
     <t>ツール概要</t>
     <rPh sb="3" eb="5">
@@ -635,45 +634,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>削除したい行にチェックを入れて、削除ボタンを押すとグレーアウトされる。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
+    <t>4.4.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存ボタンを押すと、挿入、編集、削除がDBに反映される。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
     </rPh>
     <rPh sb="16" eb="18">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.4.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保存ボタンを押すと、挿入、編集、削除がDBに反映される。</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
     <rPh sb="22" eb="24">
       <t>ハンエイ</t>
     </rPh>
@@ -739,31 +719,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年月日を指定してボタンを押すと、指定した年月日の作業リストが表示される。</t>
-    <rPh sb="0" eb="3">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1394,13 +1349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニューへ戻る</t>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラベル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1752,10 +1700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業内容（タイトル）</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -1942,25 +1886,6 @@
       <t>ジカン</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>差帳を登録した時間を表示</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2222,26 +2147,450 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ登録完了画面へ画面遷移する。</t>
+    <t>挿入</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複製</t>
+    <rPh sb="0" eb="2">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名（タイトル）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認用パスワード（タイトル）</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード（タイトル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字が固定文字として表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録フォームへ戻る。</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB更新し、ユーザ登録完了画面に遷移する。</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録完了</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
     <rPh sb="5" eb="7">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定文字'ユーザ登録完了'を表示</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面に戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記のメッセージが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録した時間を表示</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要設計書シートの機能概要参照</t>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴（タイトル）</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定文字'履歴'を表示</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴（削除）</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーから年月日を指定してボタンを押すと、指定した年月日の作業リストが表示される。</t>
+    <rPh sb="7" eb="10">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択（タイトル）</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定文字'選択'を表示</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業編集フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定文字'作業編集フォーム'を表示</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サギョウ</t>
+    </rPh>
     <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集する作業内容を引き継いで表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集する備考を引き継いで表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェックOKの場合：画面を閉じる。
+入力チェックNGの場合：エラーメッセージを表示</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジニュウリョクアイガメント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除したい行のラジオボタンにチェックを入れて、削除ボタンを押すとグレーアウトされる。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックをした行が挿入、削除、編集処理の対象になる。</t>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウニュウ</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｋ</t>
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3977,1765 +4326,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="182" name="グループ化 181"/>
+        <xdr:cNvPr id="111" name="グループ化 110"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="714375" y="171450"/>
-          <a:ext cx="6934200" cy="4400550"/>
-          <a:chOff x="7200900" y="352425"/>
-          <a:chExt cx="6886575" cy="3922972"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="183" name="グループ化 182"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="7200900" y="352425"/>
-            <a:ext cx="6886575" cy="3922972"/>
-            <a:chOff x="4057650" y="295275"/>
-            <a:chExt cx="7172325" cy="3922972"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="185" name="正方形/長方形 184"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4067174" y="495299"/>
-              <a:ext cx="7162801" cy="3722948"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>　</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>yyyy/MM/dd</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>　作業リスト</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="186" name="正方形/長方形 185"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4057650" y="295275"/>
-              <a:ext cx="1419225" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>作業リスト画面</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="187" name="正方形/長方形 186"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4286251" y="1028701"/>
-              <a:ext cx="600074" cy="263627"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>挿入</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="188" name="正方形/長方形 187"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4286251" y="1308101"/>
-              <a:ext cx="600074" cy="263627"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>削除</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="189" name="正方形/長方形 188"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4286251" y="1587501"/>
-              <a:ext cx="576994" cy="263627"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>編集</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="190" name="正方形/長方形 189"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4267200" y="2719647"/>
-              <a:ext cx="1142999" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>CSV</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>エクスポート</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="191" name="正方形/長方形 190"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4257676" y="3329247"/>
-              <a:ext cx="523874" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>履歴</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="192" name="正方形/長方形 191"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4267200" y="2967297"/>
-              <a:ext cx="1142999" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>CSV</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>インポート</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="193" name="テキスト ボックス 192"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7839075" y="3416448"/>
-              <a:ext cx="847725" cy="228600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>&lt;&lt; &lt; 1 &gt; &gt;&gt;</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="194" name="テキスト ボックス 193"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10010775" y="685800"/>
-              <a:ext cx="847725" cy="228600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>1/1 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ページ</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="195" name="正方形/長方形 194"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4781550" y="3329245"/>
-              <a:ext cx="762000" cy="257176"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-                <a:t>yyyy/MM/dd</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="196" name="正方形/長方形 195"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4448175" y="3653096"/>
-              <a:ext cx="114300" cy="85725"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="197" name="テキスト ボックス 196"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4513269" y="3614997"/>
-              <a:ext cx="1260580" cy="171450"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>削除作業含む</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="198" name="正方形/長方形 197"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4286251" y="2291022"/>
-              <a:ext cx="576994" cy="263627"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>保存</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="199" name="正方形/長方形 198"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4286251" y="1859223"/>
-              <a:ext cx="576994" cy="263627"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>複製</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="184" name="図 183"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="8648700" y="1076325"/>
-            <a:ext cx="5314950" cy="2222574"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="正方形/長方形 210"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962025" y="5800726"/>
-          <a:ext cx="2333625" cy="2076450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　開始時間：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　終了時間：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　作業内容：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　備考：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="正方形/長方形 211"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="5562600"/>
-          <a:ext cx="1419225" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業フォーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1347787</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1042987</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="正方形/長方形 212"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2033587" y="6029326"/>
-          <a:ext cx="1057275" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="正方形/長方形 213"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="7419975"/>
-          <a:ext cx="771525" cy="228601"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>確認</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1347787</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1042987</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="215" name="正方形/長方形 214"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2033587" y="7086601"/>
-          <a:ext cx="1057275" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　　　　</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1347787</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1042987</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="216" name="正方形/長方形 215"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2033587" y="6381751"/>
-          <a:ext cx="1057275" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1347787</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1042987</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="217" name="正方形/長方形 216"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2033587" y="6734176"/>
-          <a:ext cx="1057275" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>785812</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>993094</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>90315</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="218" name="図 217"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2833687" y="6753226"/>
-          <a:ext cx="207282" cy="195089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>823912</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1031194</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>109365</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="図 218"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2871787" y="7115176"/>
-          <a:ext cx="207282" cy="195089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2943225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="正方形/長方形 95"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7629524" y="2686051"/>
-          <a:ext cx="2933701" cy="761999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録ユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　さんの登録が完了しました。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="2447925"/>
-          <a:ext cx="1562100" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ登録完了画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7715250" y="581026"/>
-          <a:ext cx="2057400" cy="1419224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　ユーザ名：　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>XXXXXXXX</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　権限：　　　　　 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>XXXXXXXX</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7705725" y="342900"/>
-          <a:ext cx="1562100" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ登録確認画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1885950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8886825" y="1524000"/>
-          <a:ext cx="619125" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>876183</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>55957</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7915276" y="1524000"/>
-          <a:ext cx="580907" cy="246457"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1885949</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2771774</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="正方形/長方形 101"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9505949" y="3152775"/>
-          <a:ext cx="885825" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メニューへ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3857625" y="419100"/>
+          <a:off x="3933825" y="171450"/>
           <a:ext cx="2219325" cy="2314576"/>
           <a:chOff x="676275" y="342900"/>
           <a:chExt cx="2219325" cy="2314576"/>
@@ -5743,7 +4352,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5803,7 +4412,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5849,7 +4458,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5889,7 +4498,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvPr id="115" name="正方形/長方形 114"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5939,24 +4548,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvPr id="116" name="グループ化 115"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="790575" y="714375"/>
+          <a:off x="866775" y="466725"/>
           <a:ext cx="2219325" cy="2028824"/>
           <a:chOff x="685800" y="3457575"/>
           <a:chExt cx="2219325" cy="2028824"/>
@@ -5964,7 +4573,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvPr id="117" name="正方形/長方形 116"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6032,7 +4641,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6072,7 +4681,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvPr id="119" name="正方形/長方形 118"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6109,7 +4718,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvPr id="120" name="正方形/長方形 119"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6155,7 +4764,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvPr id="121" name="正方形/長方形 120"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6192,7 +4801,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvPr id="122" name="正方形/長方形 121"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6242,24 +4851,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="123" name="正方形/長方形 122"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="3352801"/>
+          <a:off x="781050" y="3105151"/>
           <a:ext cx="2590800" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6338,24 +4947,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="124" name="正方形/長方形 123"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="3114675"/>
+          <a:off x="771525" y="2867025"/>
           <a:ext cx="1419225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6392,25 +5001,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619124" y="8201026"/>
+          <a:off x="695324" y="7953376"/>
           <a:ext cx="2933701" cy="761999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6468,25 +5077,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="126" name="正方形/長方形 125"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="7962900"/>
+          <a:off x="685800" y="7715250"/>
           <a:ext cx="1562100" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6524,24 +5133,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="127" name="正方形/長方形 126"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2005012" y="3543301"/>
+          <a:off x="2081212" y="3295651"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6575,25 +5184,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2257425" y="4933950"/>
+          <a:off x="2333625" y="4686300"/>
           <a:ext cx="771525" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6637,24 +5246,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="129" name="正方形/長方形 128"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2005012" y="4600576"/>
+          <a:off x="2081212" y="4352926"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6697,24 +5306,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904875" y="4972051"/>
+          <a:off x="981075" y="4724401"/>
           <a:ext cx="1085850" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6748,7 +5357,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メニューへ戻る</a:t>
+            <a:t>メニューへ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6758,24 +5367,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="131" name="正方形/長方形 130"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2005012" y="3895726"/>
+          <a:off x="2081212" y="3648076"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6810,24 +5419,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="132" name="正方形/長方形 131"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2005012" y="4248151"/>
+          <a:off x="2081212" y="4000501"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6862,24 +5471,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="133" name="正方形/長方形 132"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="6076951"/>
+          <a:off x="781050" y="5829301"/>
           <a:ext cx="2057400" cy="1114424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6925,24 +5534,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="134" name="正方形/長方形 133"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="5857875"/>
+          <a:off x="771525" y="5610225"/>
           <a:ext cx="1562100" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6979,25 +5588,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876425" y="6715125"/>
+          <a:off x="1952625" y="6467475"/>
           <a:ext cx="619125" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7041,24 +5650,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114183</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>103582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876183</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27382</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="136" name="正方形/長方形 135"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904876" y="6715125"/>
+          <a:off x="981076" y="6467475"/>
           <a:ext cx="580907" cy="246457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7101,25 +5710,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2295525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvPr id="137" name="グループ化 136"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="3752850"/>
+          <a:off x="4171950" y="3505200"/>
           <a:ext cx="3819525" cy="1866900"/>
           <a:chOff x="7258050" y="4457700"/>
           <a:chExt cx="3819525" cy="1866900"/>
@@ -7127,7 +5736,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+          <xdr:cNvPr id="138" name="正方形/長方形 137"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7172,7 +5781,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+          <xdr:cNvPr id="139" name="正方形/長方形 138"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7212,7 +5821,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvPr id="140" name="正方形/長方形 139"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7258,7 +5867,7 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="32" name="図 31"/>
+          <xdr:cNvPr id="141" name="図 140"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -7301,25 +5910,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvPr id="142" name="グループ化 141"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8448675" y="533400"/>
+          <a:off x="8524875" y="285750"/>
           <a:ext cx="6934200" cy="4400550"/>
           <a:chOff x="7200900" y="352425"/>
           <a:chExt cx="6886575" cy="3922972"/>
@@ -7327,7 +5936,7 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvPr id="143" name="グループ化 142"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7340,7 +5949,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+            <xdr:cNvPr id="145" name="正方形/長方形 144"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7393,7 +6002,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+            <xdr:cNvPr id="146" name="正方形/長方形 145"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7433,7 +6042,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+            <xdr:cNvPr id="147" name="正方形/長方形 146"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7479,7 +6088,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+            <xdr:cNvPr id="148" name="正方形/長方形 147"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7525,7 +6134,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+            <xdr:cNvPr id="149" name="正方形/長方形 148"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7571,7 +6180,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+            <xdr:cNvPr id="150" name="正方形/長方形 149"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7621,7 +6230,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+            <xdr:cNvPr id="151" name="正方形/長方形 150"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7667,7 +6276,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvPr id="152" name="正方形/長方形 151"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7717,7 +6326,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+            <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7767,7 +6376,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+            <xdr:cNvPr id="154" name="テキスト ボックス 153"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7820,53 +6429,12 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+            <xdr:cNvPr id="155" name="正方形/長方形 154"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4781550" y="3329245"/>
-              <a:ext cx="762000" cy="257176"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-                <a:t>yyyy/MM/dd</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="正方形/長方形 46"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4448175" y="3653096"/>
+              <a:off x="4290541" y="3738009"/>
               <a:ext cx="114300" cy="85725"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7898,12 +6466,12 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+            <xdr:cNvPr id="156" name="テキスト ボックス 155"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4513269" y="3614997"/>
+              <a:off x="4355635" y="3699910"/>
               <a:ext cx="1260580" cy="171450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7941,7 +6509,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+            <xdr:cNvPr id="157" name="正方形/長方形 156"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7987,7 +6555,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+            <xdr:cNvPr id="158" name="正方形/長方形 157"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8034,7 +6602,7 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="35" name="図 34"/>
+          <xdr:cNvPr id="144" name="図 143"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -8077,25 +6645,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2343150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="グループ化 50"/>
+        <xdr:cNvPr id="159" name="グループ化 158"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4152900" y="6067425"/>
+          <a:off x="4229100" y="5819775"/>
           <a:ext cx="3810000" cy="3124201"/>
           <a:chOff x="7258050" y="4457700"/>
           <a:chExt cx="3810000" cy="3124201"/>
@@ -8103,7 +6671,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvPr id="160" name="正方形/長方形 159"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8148,7 +6716,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+          <xdr:cNvPr id="161" name="正方形/長方形 160"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8188,7 +6756,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+          <xdr:cNvPr id="162" name="正方形/長方形 161"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8234,7 +6802,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+          <xdr:cNvPr id="163" name="正方形/長方形 162"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8280,7 +6848,7 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="57" name="図 56"/>
+          <xdr:cNvPr id="164" name="図 163"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -8320,7 +6888,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="58" name="図 57"/>
+          <xdr:cNvPr id="165" name="図 164"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -8360,7 +6928,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="59" name="図 58"/>
+          <xdr:cNvPr id="166" name="図 165"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -8403,25 +6971,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409699</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvPr id="167" name="正方形/長方形 166"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2495549" y="8667750"/>
+          <a:off x="2571749" y="8420100"/>
           <a:ext cx="885825" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8464,20 +7032,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPr id="168" name="図 167"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8497,7 +7065,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18154650" y="8401050"/>
+          <a:off x="18230850" y="8153400"/>
           <a:ext cx="4791075" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8519,25 +7087,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvPr id="169" name="正方形/長方形 168"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8696325" y="6162676"/>
+          <a:off x="8772525" y="5915026"/>
           <a:ext cx="2333625" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8615,25 +7183,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvPr id="170" name="正方形/長方形 169"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="5924550"/>
+          <a:off x="8763000" y="5676900"/>
           <a:ext cx="1419225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8670,25 +7238,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1576387</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1633537</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2690812</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+        <xdr:cNvPr id="171" name="正方形/長方形 170"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767887" y="6391276"/>
+          <a:off x="9844087" y="6143626"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8722,25 +7290,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvPr id="172" name="正方形/長方形 171"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10020300" y="7781925"/>
+          <a:off x="10096500" y="7534275"/>
           <a:ext cx="771525" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8783,25 +7351,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1576387</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1633537</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2690812</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvPr id="173" name="正方形/長方形 172"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767887" y="7448551"/>
+          <a:off x="9844087" y="7200901"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8838,25 +7406,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1576387</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1633537</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2690812</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvPr id="174" name="正方形/長方形 173"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767887" y="6743701"/>
+          <a:off x="9844087" y="6496051"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8890,25 +7458,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1576387</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1633537</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2690812</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvPr id="175" name="正方形/長方形 174"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767887" y="7096126"/>
+          <a:off x="9844087" y="6848476"/>
           <a:ext cx="1057275" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8942,20 +7510,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2433637</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>526369</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>109365</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2640919</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="図 68"/>
+        <xdr:cNvPr id="176" name="図 175"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8968,7 +7536,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10567987" y="7115176"/>
+          <a:off x="10644187" y="6867526"/>
           <a:ext cx="207282" cy="195089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8980,20 +7548,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2471737</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>564469</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>128415</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2679019</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="図 69"/>
+        <xdr:cNvPr id="177" name="図 176"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9006,7 +7574,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10606087" y="7477126"/>
+          <a:off x="10682287" y="7229476"/>
           <a:ext cx="207282" cy="195089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9016,10 +7584,65 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1581045</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="図 177" descr="C:\Users\kigami\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\L39R73OT\CalendarUnicodeBlock_2015_ja_JP_preview[1].png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9248775" y="3641260"/>
+          <a:ext cx="542820" cy="387816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9994,19 +8617,6 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="V50:Z51" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2"/>
-    <tableColumn id="3" name="列3"/>
-    <tableColumn id="4" name="列4"/>
-    <tableColumn id="5" name="列5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -10320,9 +8930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M139"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10481,7 +9089,7 @@
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C47" s="2"/>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
@@ -10507,7 +9115,7 @@
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C52" s="2"/>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
@@ -10519,19 +9127,19 @@
     <row r="54" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C54" s="2"/>
       <c r="D54" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C55" s="2"/>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2"/>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
@@ -10613,19 +9221,19 @@
         <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D78" s="2"/>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.15">
@@ -10641,10 +9249,10 @@
         <v>45</v>
       </c>
       <c r="I81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="4:13" x14ac:dyDescent="0.15">
@@ -10652,7 +9260,7 @@
         <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="4:13" x14ac:dyDescent="0.15">
@@ -10660,7 +9268,7 @@
         <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="4:13" x14ac:dyDescent="0.15">
@@ -10670,7 +9278,7 @@
     </row>
     <row r="86" spans="4:13" x14ac:dyDescent="0.15">
       <c r="F86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G86" t="s">
         <v>50</v>
@@ -10678,7 +9286,7 @@
     </row>
     <row r="87" spans="4:13" x14ac:dyDescent="0.15">
       <c r="F87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G87" t="s">
         <v>51</v>
@@ -10686,7 +9294,7 @@
     </row>
     <row r="88" spans="4:13" x14ac:dyDescent="0.15">
       <c r="F88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G88" t="s">
         <v>53</v>
@@ -10694,7 +9302,7 @@
     </row>
     <row r="89" spans="4:13" x14ac:dyDescent="0.15">
       <c r="F89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G89" t="s">
         <v>54</v>
@@ -10711,19 +9319,19 @@
     <row r="93" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D93" s="2"/>
       <c r="E93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="4:13" x14ac:dyDescent="0.15">
@@ -10747,7 +9355,7 @@
         <v>46</v>
       </c>
       <c r="I98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.15">
@@ -10755,7 +9363,7 @@
         <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.15">
@@ -10765,7 +9373,7 @@
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G102" t="s">
         <v>50</v>
@@ -10773,7 +9381,7 @@
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G103" t="s">
         <v>51</v>
@@ -10781,7 +9389,7 @@
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G104" t="s">
         <v>52</v>
@@ -10789,7 +9397,7 @@
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G105" t="s">
         <v>53</v>
@@ -10797,7 +9405,7 @@
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G106" t="s">
         <v>54</v>
@@ -10813,12 +9421,12 @@
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E110" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D113" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E113" t="s">
         <v>25</v>
@@ -10826,12 +9434,12 @@
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E114" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D117" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E117" t="s">
         <v>28</v>
@@ -10840,13 +9448,13 @@
     <row r="118" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2"/>
       <c r="E118" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D119" s="2"/>
       <c r="E119" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.15">
@@ -10857,7 +9465,7 @@
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D122" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E122" t="s">
         <v>27</v>
@@ -10865,72 +9473,72 @@
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E124" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D126" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E126" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E127" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E128" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D131" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E131" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E132" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E133" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E134" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D137" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E137" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D138" s="2"/>
       <c r="E138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.15">
@@ -10957,18 +9565,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B50:Y472"/>
+  <dimension ref="B50:Y141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="3240" topLeftCell="A83" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.75" customWidth="1"/>
@@ -10985,963 +9589,1123 @@
   <sheetData>
     <row r="50" spans="2:25" x14ac:dyDescent="0.15">
       <c r="U50" t="s">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s">
+        <v>82</v>
+      </c>
+      <c r="W50" t="s">
         <v>83</v>
       </c>
-      <c r="V50" t="s">
+      <c r="X50" t="s">
         <v>84</v>
       </c>
-      <c r="W50" t="s">
+      <c r="Y50" t="s">
         <v>85</v>
-      </c>
-      <c r="X50" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B58" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B59" s="16"/>
       <c r="C59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B60" s="16"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B61" s="16"/>
       <c r="C61" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B62" s="16"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="2:25" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="16"/>
       <c r="C63" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B64" s="17"/>
       <c r="C64" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="16"/>
       <c r="C66" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="16"/>
       <c r="C67" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="16"/>
       <c r="C68" s="4" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="16"/>
       <c r="C69" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="16"/>
       <c r="C70" s="4" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="16"/>
       <c r="C71" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B72" s="16"/>
       <c r="C72" s="4" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B73" s="17"/>
       <c r="C73" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B75" s="16"/>
       <c r="C75" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="16"/>
       <c r="C76" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B77" s="16"/>
       <c r="C77" s="4" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B78" s="16"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="4" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F78" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="16"/>
+      <c r="B79" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="C79" s="4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="4" t="s">
-        <v>117</v>
+      <c r="F79" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="17"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="4" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="B81" s="16"/>
       <c r="C81" s="4" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" s="16"/>
-      <c r="C82" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="16"/>
-      <c r="C83" s="5" t="s">
-        <v>129</v>
+      <c r="C83" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="17"/>
-      <c r="C84" s="4" t="s">
-        <v>131</v>
+      <c r="B84" s="16"/>
+      <c r="C84" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="15" t="s">
-        <v>145</v>
-      </c>
+      <c r="B85" s="17"/>
       <c r="C85" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="5" t="s">
-        <v>151</v>
+      <c r="F85" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="16"/>
+      <c r="B86" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="C86" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="16"/>
       <c r="C87" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="16"/>
       <c r="C88" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B89" s="16"/>
       <c r="C89" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="16"/>
       <c r="C90" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B91" s="17"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="15" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B92" s="17"/>
       <c r="C92" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="16"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="C93" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="16"/>
       <c r="C94" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="5" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" s="16"/>
       <c r="C95" s="4" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="4" t="s">
-        <v>170</v>
+      <c r="F95" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" s="16"/>
       <c r="C96" s="4" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="F96" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="16"/>
       <c r="C97" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B98" s="16"/>
       <c r="C98" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="16"/>
       <c r="C99" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B100" s="16"/>
       <c r="C100" s="4" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B101" s="16"/>
       <c r="C101" s="4" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="16"/>
       <c r="C102" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B103" s="16"/>
       <c r="C103" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="16"/>
       <c r="C104" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B105" s="17"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106" s="4" t="s">
-        <v>163</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B106" s="17"/>
       <c r="C106" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="5" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="4"/>
+      <c r="B107" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="C107" s="4" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="F107" s="4" t="s">
-        <v>167</v>
+      <c r="F107" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B108" s="4"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="4"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="E109" s="4"/>
-      <c r="F109" s="5" t="s">
-        <v>169</v>
+      <c r="F109" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B110" s="4"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="4" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="5" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="4"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="4" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B112" s="4"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="5" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="4"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B114" s="16"/>
+      <c r="C114" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" s="16"/>
+      <c r="C115" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="16"/>
+      <c r="C116" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" s="16"/>
+      <c r="C117" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" s="16"/>
+      <c r="C118" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" s="16"/>
+      <c r="C119" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" s="16"/>
+      <c r="C120" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" s="16"/>
+      <c r="C121" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B122" s="16"/>
+      <c r="C122" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="16"/>
+      <c r="C123" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B124" s="16"/>
+      <c r="C124" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B125" s="16"/>
+      <c r="C125" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B126" s="16"/>
+      <c r="C126" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B127" s="16"/>
+      <c r="C127" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B128" s="16"/>
+      <c r="C128" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="17"/>
+      <c r="C129" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B130" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="D130" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="F130" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+      <c r="F131" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="F132" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
+      <c r="F133" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B135" s="16"/>
+      <c r="C135" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="F135" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
+      <c r="F136" s="5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="F137" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="F138" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B139" s="17"/>
+      <c r="C139" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="F139" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B140" s="4"/>
@@ -11957,2331 +10721,17 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
-      <c r="F233" s="4"/>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-      <c r="F234" s="4"/>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="4"/>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="4"/>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="4"/>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="4"/>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="4"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="4"/>
-      <c r="F243" s="4"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="4"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="4"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4"/>
-      <c r="F247" s="4"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="4"/>
-      <c r="F248" s="4"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
-      <c r="F249" s="4"/>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="4"/>
-      <c r="F250" s="4"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
-      <c r="F251" s="4"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="4"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4"/>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="4"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="4"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="4"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
-      <c r="F259" s="4"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4"/>
-      <c r="F260" s="4"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="4"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="4"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
-      <c r="F263" s="4"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
-      <c r="E264" s="4"/>
-      <c r="F264" s="4"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
-      <c r="E265" s="4"/>
-      <c r="F265" s="4"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="4"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="4"/>
-      <c r="F280" s="4"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
-      <c r="E281" s="4"/>
-      <c r="F281" s="4"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
-      <c r="E282" s="4"/>
-      <c r="F282" s="4"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
-      <c r="E283" s="4"/>
-      <c r="F283" s="4"/>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4"/>
-      <c r="F284" s="4"/>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="4"/>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="4"/>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="4"/>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="4"/>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
-      <c r="F289" s="4"/>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="4"/>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="4"/>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4"/>
-      <c r="F292" s="4"/>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
-      <c r="E293" s="4"/>
-      <c r="F293" s="4"/>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
-      <c r="E294" s="4"/>
-      <c r="F294" s="4"/>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="4"/>
-      <c r="F295" s="4"/>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="4"/>
-      <c r="F296" s="4"/>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
-      <c r="F297" s="4"/>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
-      <c r="F298" s="4"/>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4"/>
-      <c r="F299" s="4"/>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="4"/>
-      <c r="F300" s="4"/>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="4"/>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="4"/>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-      <c r="F303" s="4"/>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
-      <c r="E304" s="4"/>
-      <c r="F304" s="4"/>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
-      <c r="F305" s="4"/>
-    </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="4"/>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4"/>
-    </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="4"/>
-    </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="4"/>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-    </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-      <c r="F320" s="4"/>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="4"/>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="4"/>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4"/>
-      <c r="F323" s="4"/>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
-      <c r="E324" s="4"/>
-      <c r="F324" s="4"/>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
-      <c r="E325" s="4"/>
-      <c r="F325" s="4"/>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
-      <c r="E326" s="4"/>
-      <c r="F326" s="4"/>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="4"/>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="4"/>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="4"/>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
-      <c r="F330" s="4"/>
-    </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="4"/>
-    </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
-      <c r="E332" s="4"/>
-      <c r="F332" s="4"/>
-    </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
-      <c r="F333" s="4"/>
-    </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="4"/>
-      <c r="F334" s="4"/>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
-      <c r="F335" s="4"/>
-    </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
-      <c r="E336" s="4"/>
-      <c r="F336" s="4"/>
-    </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
-      <c r="E337" s="4"/>
-      <c r="F337" s="4"/>
-    </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
-      <c r="E338" s="4"/>
-      <c r="F338" s="4"/>
-    </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4"/>
-      <c r="F339" s="4"/>
-    </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
-      <c r="F340" s="4"/>
-    </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
-      <c r="F341" s="4"/>
-    </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
-      <c r="F342" s="4"/>
-    </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
-    </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
-      <c r="E344" s="4"/>
-      <c r="F344" s="4"/>
-    </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
-      <c r="E345" s="4"/>
-      <c r="F345" s="4"/>
-    </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4"/>
-      <c r="F346" s="4"/>
-    </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
-      <c r="E347" s="4"/>
-      <c r="F347" s="4"/>
-    </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4"/>
-      <c r="F348" s="4"/>
-    </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4"/>
-      <c r="F349" s="4"/>
-    </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
-      <c r="E350" s="4"/>
-      <c r="F350" s="4"/>
-    </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
-      <c r="E351" s="4"/>
-      <c r="F351" s="4"/>
-    </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
-      <c r="E352" s="4"/>
-      <c r="F352" s="4"/>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
-      <c r="E353" s="4"/>
-      <c r="F353" s="4"/>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
-      <c r="E354" s="4"/>
-      <c r="F354" s="4"/>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
-      <c r="E355" s="4"/>
-      <c r="F355" s="4"/>
-    </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
-      <c r="E356" s="4"/>
-      <c r="F356" s="4"/>
-    </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4"/>
-      <c r="F357" s="4"/>
-    </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
-      <c r="F358" s="4"/>
-    </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
-      <c r="E359" s="4"/>
-      <c r="F359" s="4"/>
-    </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
-      <c r="E360" s="4"/>
-      <c r="F360" s="4"/>
-    </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
-      <c r="E361" s="4"/>
-      <c r="F361" s="4"/>
-    </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
-      <c r="E362" s="4"/>
-      <c r="F362" s="4"/>
-    </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
-      <c r="E363" s="4"/>
-      <c r="F363" s="4"/>
-    </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="4"/>
-    </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
-      <c r="E365" s="4"/>
-      <c r="F365" s="4"/>
-    </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
-      <c r="E366" s="4"/>
-      <c r="F366" s="4"/>
-    </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
-      <c r="E367" s="4"/>
-      <c r="F367" s="4"/>
-    </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
-      <c r="D368" s="4"/>
-      <c r="E368" s="4"/>
-      <c r="F368" s="4"/>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
-      <c r="F369" s="4"/>
-    </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="4"/>
-      <c r="F370" s="4"/>
-    </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B371" s="4"/>
-      <c r="C371" s="4"/>
-      <c r="D371" s="4"/>
-      <c r="E371" s="4"/>
-      <c r="F371" s="4"/>
-    </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
-      <c r="E372" s="4"/>
-      <c r="F372" s="4"/>
-    </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
-      <c r="E373" s="4"/>
-      <c r="F373" s="4"/>
-    </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
-      <c r="E374" s="4"/>
-      <c r="F374" s="4"/>
-    </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
-      <c r="F375" s="4"/>
-    </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4"/>
-      <c r="F376" s="4"/>
-    </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
-      <c r="E377" s="4"/>
-      <c r="F377" s="4"/>
-    </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4"/>
-      <c r="F378" s="4"/>
-    </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
-      <c r="E379" s="4"/>
-      <c r="F379" s="4"/>
-    </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
-      <c r="E380" s="4"/>
-      <c r="F380" s="4"/>
-    </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
-      <c r="E381" s="4"/>
-      <c r="F381" s="4"/>
-    </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
-      <c r="E382" s="4"/>
-      <c r="F382" s="4"/>
-    </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
-      <c r="E383" s="4"/>
-      <c r="F383" s="4"/>
-    </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
-      <c r="E384" s="4"/>
-      <c r="F384" s="4"/>
-    </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
-      <c r="E385" s="4"/>
-      <c r="F385" s="4"/>
-    </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
-      <c r="E386" s="4"/>
-      <c r="F386" s="4"/>
-    </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
-      <c r="F387" s="4"/>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
-      <c r="D388" s="4"/>
-      <c r="E388" s="4"/>
-      <c r="F388" s="4"/>
-    </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
-      <c r="E389" s="4"/>
-      <c r="F389" s="4"/>
-    </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
-      <c r="E390" s="4"/>
-      <c r="F390" s="4"/>
-    </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="4"/>
-      <c r="F391" s="4"/>
-    </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4"/>
-      <c r="F392" s="4"/>
-    </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="4"/>
-      <c r="F393" s="4"/>
-    </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
-      <c r="D394" s="4"/>
-      <c r="E394" s="4"/>
-      <c r="F394" s="4"/>
-    </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
-      <c r="D395" s="4"/>
-      <c r="E395" s="4"/>
-      <c r="F395" s="4"/>
-    </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
-      <c r="E396" s="4"/>
-      <c r="F396" s="4"/>
-    </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
-      <c r="E397" s="4"/>
-      <c r="F397" s="4"/>
-    </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
-      <c r="E398" s="4"/>
-      <c r="F398" s="4"/>
-    </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
-      <c r="D399" s="4"/>
-      <c r="E399" s="4"/>
-      <c r="F399" s="4"/>
-    </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
-      <c r="D400" s="4"/>
-      <c r="E400" s="4"/>
-      <c r="F400" s="4"/>
-    </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
-      <c r="E401" s="4"/>
-      <c r="F401" s="4"/>
-    </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B402" s="4"/>
-      <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="4"/>
-      <c r="F402" s="4"/>
-    </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="4"/>
-      <c r="F403" s="4"/>
-    </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B404" s="4"/>
-      <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
-      <c r="E404" s="4"/>
-      <c r="F404" s="4"/>
-    </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="4"/>
-      <c r="F405" s="4"/>
-    </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B406" s="4"/>
-      <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4"/>
-      <c r="F406" s="4"/>
-    </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B407" s="4"/>
-      <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
-      <c r="E407" s="4"/>
-      <c r="F407" s="4"/>
-    </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B408" s="4"/>
-      <c r="C408" s="4"/>
-      <c r="D408" s="4"/>
-      <c r="E408" s="4"/>
-      <c r="F408" s="4"/>
-    </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B409" s="4"/>
-      <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
-      <c r="E409" s="4"/>
-      <c r="F409" s="4"/>
-    </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B410" s="4"/>
-      <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
-      <c r="E410" s="4"/>
-      <c r="F410" s="4"/>
-    </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B411" s="4"/>
-      <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
-      <c r="E411" s="4"/>
-      <c r="F411" s="4"/>
-    </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B412" s="4"/>
-      <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
-      <c r="E412" s="4"/>
-      <c r="F412" s="4"/>
-    </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B413" s="4"/>
-      <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
-      <c r="E413" s="4"/>
-      <c r="F413" s="4"/>
-    </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B414" s="4"/>
-      <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
-      <c r="E414" s="4"/>
-      <c r="F414" s="4"/>
-    </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B415" s="4"/>
-      <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
-      <c r="E415" s="4"/>
-      <c r="F415" s="4"/>
-    </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B416" s="4"/>
-      <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
-      <c r="E416" s="4"/>
-      <c r="F416" s="4"/>
-    </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B417" s="4"/>
-      <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
-      <c r="E417" s="4"/>
-      <c r="F417" s="4"/>
-    </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B418" s="4"/>
-      <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
-      <c r="E418" s="4"/>
-      <c r="F418" s="4"/>
-    </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B419" s="4"/>
-      <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
-      <c r="E419" s="4"/>
-      <c r="F419" s="4"/>
-    </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B420" s="4"/>
-      <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
-      <c r="E420" s="4"/>
-      <c r="F420" s="4"/>
-    </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
-      <c r="F421" s="4"/>
-    </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
-      <c r="E422" s="4"/>
-      <c r="F422" s="4"/>
-    </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
-      <c r="E423" s="4"/>
-      <c r="F423" s="4"/>
-    </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="4"/>
-      <c r="F424" s="4"/>
-    </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
-      <c r="E425" s="4"/>
-      <c r="F425" s="4"/>
-    </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B426" s="4"/>
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
-      <c r="E426" s="4"/>
-      <c r="F426" s="4"/>
-    </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
-      <c r="E427" s="4"/>
-      <c r="F427" s="4"/>
-    </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B428" s="4"/>
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
-      <c r="E428" s="4"/>
-      <c r="F428" s="4"/>
-    </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4"/>
-      <c r="F429" s="4"/>
-    </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
-      <c r="E430" s="4"/>
-      <c r="F430" s="4"/>
-    </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
-      <c r="E431" s="4"/>
-      <c r="F431" s="4"/>
-    </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
-      <c r="E432" s="4"/>
-      <c r="F432" s="4"/>
-    </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
-      <c r="E433" s="4"/>
-      <c r="F433" s="4"/>
-    </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-      <c r="E434" s="4"/>
-      <c r="F434" s="4"/>
-    </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
-      <c r="E435" s="4"/>
-      <c r="F435" s="4"/>
-    </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B436" s="4"/>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
-      <c r="E436" s="4"/>
-      <c r="F436" s="4"/>
-    </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
-      <c r="E437" s="4"/>
-      <c r="F437" s="4"/>
-    </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
-      <c r="E438" s="4"/>
-      <c r="F438" s="4"/>
-    </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="4"/>
-      <c r="F439" s="4"/>
-    </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B440" s="4"/>
-      <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
-      <c r="E440" s="4"/>
-      <c r="F440" s="4"/>
-    </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
-      <c r="E441" s="4"/>
-      <c r="F441" s="4"/>
-    </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B442" s="4"/>
-      <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
-      <c r="E442" s="4"/>
-      <c r="F442" s="4"/>
-    </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B443" s="4"/>
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
-      <c r="E443" s="4"/>
-      <c r="F443" s="4"/>
-    </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B444" s="4"/>
-      <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
-      <c r="E444" s="4"/>
-      <c r="F444" s="4"/>
-    </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
-      <c r="E445" s="4"/>
-      <c r="F445" s="4"/>
-    </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B446" s="4"/>
-      <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
-      <c r="E446" s="4"/>
-      <c r="F446" s="4"/>
-    </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
-      <c r="E447" s="4"/>
-      <c r="F447" s="4"/>
-    </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B448" s="4"/>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
-      <c r="E448" s="4"/>
-      <c r="F448" s="4"/>
-    </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B449" s="4"/>
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
-      <c r="E449" s="4"/>
-      <c r="F449" s="4"/>
-    </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B450" s="4"/>
-      <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
-      <c r="E450" s="4"/>
-      <c r="F450" s="4"/>
-    </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B451" s="4"/>
-      <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
-      <c r="E451" s="4"/>
-      <c r="F451" s="4"/>
-    </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B452" s="4"/>
-      <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
-      <c r="E452" s="4"/>
-      <c r="F452" s="4"/>
-    </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B453" s="4"/>
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
-      <c r="E453" s="4"/>
-      <c r="F453" s="4"/>
-    </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B454" s="4"/>
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
-      <c r="E454" s="4"/>
-      <c r="F454" s="4"/>
-    </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B455" s="4"/>
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
-      <c r="E455" s="4"/>
-      <c r="F455" s="4"/>
-    </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
-      <c r="E456" s="4"/>
-      <c r="F456" s="4"/>
-    </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
-      <c r="E457" s="4"/>
-      <c r="F457" s="4"/>
-    </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
-      <c r="E458" s="4"/>
-      <c r="F458" s="4"/>
-    </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B459" s="4"/>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
-      <c r="E459" s="4"/>
-      <c r="F459" s="4"/>
-    </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
-      <c r="E460" s="4"/>
-      <c r="F460" s="4"/>
-    </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B461" s="4"/>
-      <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
-      <c r="E461" s="4"/>
-      <c r="F461" s="4"/>
-    </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B462" s="4"/>
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
-      <c r="E462" s="4"/>
-      <c r="F462" s="4"/>
-    </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
-      <c r="E463" s="4"/>
-      <c r="F463" s="4"/>
-    </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
-      <c r="E464" s="4"/>
-      <c r="F464" s="4"/>
-    </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
-      <c r="E465" s="4"/>
-      <c r="F465" s="4"/>
-    </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B466" s="4"/>
-      <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
-      <c r="E466" s="4"/>
-      <c r="F466" s="4"/>
-    </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B467" s="4"/>
-      <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
-      <c r="E467" s="4"/>
-      <c r="F467" s="4"/>
-    </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
-      <c r="E468" s="4"/>
-      <c r="F468" s="4"/>
-    </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B469" s="4"/>
-      <c r="C469" s="4"/>
-      <c r="D469" s="4"/>
-      <c r="E469" s="4"/>
-      <c r="F469" s="4"/>
-    </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B470" s="4"/>
-      <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
-      <c r="E470" s="4"/>
-      <c r="F470" s="4"/>
-    </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B471" s="4"/>
-      <c r="C471" s="4"/>
-      <c r="D471" s="4"/>
-      <c r="E471" s="4"/>
-      <c r="F471" s="4"/>
-    </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B472" s="4"/>
-      <c r="C472" s="4"/>
-      <c r="D472" s="4"/>
-      <c r="E472" s="4"/>
-      <c r="F472" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B92:B105"/>
-    <mergeCell ref="B74:B80"/>
+  <mergeCells count="9">
+    <mergeCell ref="B107:B129"/>
+    <mergeCell ref="B130:B139"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="B93:B106"/>
+    <mergeCell ref="B74:B78"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B65:B73"/>
-    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B79:B81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14294,60 +10744,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="V50:Z50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="27" customWidth="1"/>
-    <col min="17" max="17" width="5.875" customWidth="1"/>
-    <col min="21" max="21" width="25.875" customWidth="1"/>
-    <col min="22" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="50" spans="22:26" x14ac:dyDescent="0.15">
-      <c r="V50" t="s">
-        <v>83</v>
-      </c>
-      <c r="W50" t="s">
-        <v>84</v>
-      </c>
-      <c r="X50" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="225">
   <si>
     <t>ツール概要</t>
     <rPh sb="3" eb="5">
@@ -929,46 +929,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開始時間</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
+    <t>作業時間</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了時間</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業時間</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1375,16 +1341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業リスト表示</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業登録画面に遷移する。</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -2591,6 +2547,62 @@
     <rPh sb="20" eb="22">
       <t>タイショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダメニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面、ユーザ登録関連画面以外の画面でログイン時のみ表示
+メニュー画面に戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面、ユーザ登録関連画面以外の画面でログイン時のみ表示
+ログアウトする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4534,10 +4546,10 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
+            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>作業リスト表示</a:t>
+              <a:t>作業リスト</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5306,15 +5318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5323,8 +5335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="4724401"/>
-          <a:ext cx="1085850" cy="209550"/>
+          <a:off x="1019175" y="4705350"/>
+          <a:ext cx="666750" cy="228602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5357,7 +5369,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メニューへ</a:t>
+            <a:t>戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6646,9 +6658,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -6663,10 +6675,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4229100" y="5819775"/>
-          <a:ext cx="3810000" cy="3124201"/>
-          <a:chOff x="7258050" y="4457700"/>
-          <a:chExt cx="3810000" cy="3124201"/>
+          <a:off x="4219575" y="5505450"/>
+          <a:ext cx="3819525" cy="3438526"/>
+          <a:chOff x="7248525" y="4143375"/>
+          <a:chExt cx="3819525" cy="3438526"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -6676,8 +6688,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7267575" y="4657725"/>
-            <a:ext cx="3800475" cy="2924176"/>
+            <a:off x="7267575" y="4572000"/>
+            <a:ext cx="3800475" cy="3009901"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6721,7 +6733,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7258050" y="4457700"/>
+            <a:off x="7248525" y="4143375"/>
             <a:ext cx="1419225" cy="238125"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -7030,61 +7042,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="図 167"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18230850" y="8153400"/>
-          <a:ext cx="4791075" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -7176,61 +7133,6 @@
             <a:t>　備考：</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="正方形/長方形 169"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8763000" y="5676900"/>
-          <a:ext cx="1419225" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業フォーム</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7529,7 +7431,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7567,7 +7469,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7605,7 +7507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7637,6 +7539,271 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="正方形/長方形 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="5705475"/>
+          <a:ext cx="1419225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業編集フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2409826</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4238625" y="5734050"/>
+          <a:ext cx="3867151" cy="400050"/>
+          <a:chOff x="4238625" y="5819759"/>
+          <a:chExt cx="3867151" cy="342899"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="グループ化 1"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4238625" y="5819759"/>
+            <a:ext cx="3800475" cy="342899"/>
+            <a:chOff x="8648700" y="8181959"/>
+            <a:chExt cx="2695575" cy="342899"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8648700" y="8181959"/>
+              <a:ext cx="2695575" cy="342899"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="3175"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8686378" y="8247289"/>
+              <a:ext cx="698709" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>メニューへ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7267576" y="5867400"/>
+            <a:ext cx="838200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ログアウト</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8604,19 +8771,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="U50:Y51" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2"/>
-    <tableColumn id="3" name="列3"/>
-    <tableColumn id="4" name="列4"/>
-    <tableColumn id="5" name="列5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -8930,7 +9084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9089,7 +9245,7 @@
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C47" s="2"/>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
@@ -9127,7 +9283,7 @@
     <row r="54" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C54" s="2"/>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.15">
@@ -9139,7 +9295,7 @@
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2"/>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
@@ -9227,13 +9383,13 @@
     <row r="78" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D78" s="2"/>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.15">
@@ -9249,10 +9405,10 @@
         <v>45</v>
       </c>
       <c r="I81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M81" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="4:13" x14ac:dyDescent="0.15">
@@ -9319,19 +9475,19 @@
     <row r="93" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D93" s="2"/>
       <c r="E93" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="4:13" x14ac:dyDescent="0.15">
@@ -9421,7 +9577,7 @@
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E110" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.15">
@@ -9448,7 +9604,7 @@
     <row r="118" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2"/>
       <c r="E118" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.15">
@@ -9565,9 +9721,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B50:Y141"/>
+  <dimension ref="B57:F141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB28" sqref="A1:AB1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9581,554 +9739,533 @@
     <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="16" max="16" width="5.875" customWidth="1"/>
-    <col min="20" max="20" width="25.875" customWidth="1"/>
-    <col min="21" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="U50" t="s">
-        <v>81</v>
-      </c>
-      <c r="V50" t="s">
-        <v>82</v>
-      </c>
-      <c r="W50" t="s">
-        <v>83</v>
-      </c>
-      <c r="X50" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E57" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="16"/>
       <c r="C59" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="16"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="16"/>
       <c r="C61" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" s="16"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="2:25" ht="135" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="16"/>
       <c r="C63" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="17"/>
       <c r="C64" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="16"/>
       <c r="C66" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="16"/>
       <c r="C67" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="16"/>
       <c r="C68" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="16"/>
       <c r="C69" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="16"/>
       <c r="C70" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="16"/>
       <c r="C71" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B72" s="16"/>
       <c r="C72" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B73" s="17"/>
       <c r="C73" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B75" s="16"/>
       <c r="C75" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="16"/>
       <c r="C76" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B77" s="16"/>
       <c r="C77" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" s="17"/>
       <c r="C78" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="16"/>
       <c r="C80" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" s="16"/>
       <c r="C81" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="16"/>
       <c r="C83" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="16"/>
       <c r="C84" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="17"/>
       <c r="C85" s="4" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="16"/>
       <c r="C87" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="16"/>
       <c r="C88" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B89" s="16"/>
       <c r="C89" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="16"/>
       <c r="C90" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B91" s="16"/>
       <c r="C91" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B92" s="17"/>
       <c r="C92" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="16"/>
       <c r="C94" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" s="16"/>
       <c r="C95" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
@@ -10137,63 +10274,63 @@
         <v>44</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="16"/>
       <c r="C97" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B98" s="16"/>
       <c r="C98" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="16"/>
       <c r="C99" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B100" s="16"/>
       <c r="C100" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="27" x14ac:dyDescent="0.15">
@@ -10202,208 +10339,208 @@
         <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="16"/>
       <c r="C102" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B103" s="16"/>
       <c r="C103" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="16"/>
       <c r="C104" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B105" s="16"/>
       <c r="C105" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B106" s="17"/>
       <c r="C106" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="16"/>
       <c r="C108" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="16"/>
       <c r="C109" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="16"/>
       <c r="C110" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="16"/>
       <c r="C111" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="16"/>
       <c r="C112" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="16"/>
       <c r="C113" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="16"/>
       <c r="C114" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="16"/>
       <c r="C115" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" s="16"/>
       <c r="C116" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
@@ -10412,11 +10549,11 @@
         <v>44</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
@@ -10425,24 +10562,24 @@
         <v>45</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="16"/>
       <c r="C119" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
@@ -10451,11 +10588,11 @@
         <v>46</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
@@ -10464,143 +10601,143 @@
         <v>47</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="16"/>
       <c r="C122" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="16"/>
       <c r="C123" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="16"/>
       <c r="C124" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" s="16"/>
       <c r="C125" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="16"/>
       <c r="C126" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" s="16"/>
       <c r="C127" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="16"/>
       <c r="C128" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B129" s="17"/>
       <c r="C129" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B130" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B131" s="16"/>
       <c r="C131" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
@@ -10609,24 +10746,24 @@
         <v>44</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" s="16"/>
       <c r="C133" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
@@ -10635,24 +10772,24 @@
         <v>45</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B135" s="16"/>
       <c r="C135" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
@@ -10661,24 +10798,24 @@
         <v>46</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" s="16"/>
       <c r="C137" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
@@ -10687,58 +10824,70 @@
         <v>47</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B139" s="17"/>
       <c r="C139" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B140" s="15" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="C140" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="F140" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B141" s="17"/>
+      <c r="C141" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="F141" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B107:B129"/>
+  <mergeCells count="10">
     <mergeCell ref="B130:B139"/>
     <mergeCell ref="B86:B92"/>
     <mergeCell ref="B93:B106"/>
     <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B140:B141"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B65:B73"/>
     <mergeCell ref="B82:B85"/>
     <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B107:B129"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/01_概要設計書/概要設計書.xlsx
+++ b/01_概要設計書/概要設計書.xlsx
@@ -1292,25 +1292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一意になるユーザIDを付与し、権限と関連付けて管理する。</t>
-    <rPh sb="0" eb="2">
-      <t>イチイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>カンレンヅ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2603,6 +2584,13 @@
   </si>
   <si>
     <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザIDは一意になるように付与する。</t>
+    <rPh sb="14" eb="16">
+      <t>フヨ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4401,7 +4389,15 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ようこそ　</a:t>
+              <a:t>ようこそ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>!</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -4948,7 +4944,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　権限：</a:t>
+            <a:t>　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5250,66 +5246,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>確認</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1090612</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="正方形/長方形 128"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2081212" y="4352926"/>
-          <a:ext cx="1057275" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>▼</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5923,15 +5859,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5940,7 +5876,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8524875" y="285750"/>
+          <a:off x="8658225" y="466725"/>
           <a:ext cx="6934200" cy="4400550"/>
           <a:chOff x="7200900" y="352425"/>
           <a:chExt cx="6886575" cy="3922972"/>
@@ -9084,8 +9020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M139"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="B45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9245,7 +9181,7 @@
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C47" s="2"/>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
@@ -9283,7 +9219,7 @@
     <row r="54" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C54" s="2"/>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.15">
@@ -9295,7 +9231,7 @@
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2"/>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
@@ -9577,7 +9513,7 @@
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.15">
@@ -9604,7 +9540,7 @@
     <row r="118" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D118" s="2"/>
       <c r="E118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.15">
@@ -9723,8 +9659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B57:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB28" sqref="A1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9763,14 +9699,14 @@
         <v>92</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
@@ -9835,7 +9771,7 @@
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
@@ -9856,14 +9792,14 @@
         <v>105</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
@@ -9876,7 +9812,7 @@
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
@@ -9897,14 +9833,14 @@
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="16"/>
       <c r="C68" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
@@ -9923,14 +9859,14 @@
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="16"/>
       <c r="C70" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
@@ -9949,7 +9885,7 @@
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B72" s="16"/>
       <c r="C72" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>110</v>
@@ -9969,35 +9905,35 @@
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B75" s="16"/>
       <c r="C75" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
@@ -10006,266 +9942,266 @@
         <v>93</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B77" s="16"/>
       <c r="C77" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" s="17"/>
       <c r="C78" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="16"/>
       <c r="C80" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" s="16"/>
       <c r="C81" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="16"/>
       <c r="C83" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="16"/>
       <c r="C84" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="17"/>
       <c r="C85" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="16"/>
       <c r="C87" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="16"/>
       <c r="C88" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B89" s="16"/>
       <c r="C89" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="16"/>
       <c r="C90" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B91" s="16"/>
       <c r="C91" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B92" s="17"/>
       <c r="C92" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="16"/>
       <c r="C94" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" s="16"/>
       <c r="C95" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
@@ -10278,59 +10214,59 @@
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="16"/>
       <c r="C97" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B98" s="16"/>
       <c r="C98" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="16"/>
       <c r="C99" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B100" s="16"/>
       <c r="C100" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="27" x14ac:dyDescent="0.15">
@@ -10343,204 +10279,204 @@
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="16"/>
       <c r="C102" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B103" s="16"/>
       <c r="C103" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B104" s="16"/>
       <c r="C104" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B105" s="16"/>
       <c r="C105" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B106" s="17"/>
       <c r="C106" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="16"/>
       <c r="C108" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="16"/>
       <c r="C109" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="16"/>
       <c r="C110" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" s="16"/>
       <c r="C111" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="16"/>
       <c r="C112" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="16"/>
       <c r="C113" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="16"/>
       <c r="C114" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="16"/>
       <c r="C115" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" s="16"/>
       <c r="C116" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
@@ -10549,11 +10485,11 @@
         <v>44</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
@@ -10562,11 +10498,11 @@
         <v>45</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
@@ -10579,7 +10515,7 @@
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
@@ -10588,11 +10524,11 @@
         <v>46</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
@@ -10601,143 +10537,143 @@
         <v>47</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="16"/>
       <c r="C122" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="16"/>
       <c r="C123" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="16"/>
       <c r="C124" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" s="16"/>
       <c r="C125" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="16"/>
       <c r="C126" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" s="16"/>
       <c r="C127" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="16"/>
       <c r="C128" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B129" s="17"/>
       <c r="C129" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B130" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B131" s="16"/>
       <c r="C131" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
@@ -10746,24 +10682,24 @@
         <v>44</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" s="16"/>
       <c r="C133" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
@@ -10772,24 +10708,24 @@
         <v>45</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B135" s="16"/>
       <c r="C135" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
@@ -10798,24 +10734,24 @@
         <v>46</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" s="16"/>
       <c r="C137" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
@@ -10824,11 +10760,11 @@
         <v>47</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="27" x14ac:dyDescent="0.15">
@@ -10837,39 +10773,39 @@
         <v>109</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B140" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B141" s="17"/>
       <c r="C141" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
